--- a/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17915</v>
+        <v>17931</v>
       </c>
       <c r="D2" t="n">
-        <v>22440383</v>
+        <v>22455118</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6646</v>
+        <v>6648</v>
       </c>
       <c r="D6" t="n">
-        <v>9728980</v>
+        <v>9731980</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3643</v>
+        <v>3648</v>
       </c>
       <c r="D8" t="n">
-        <v>5277872</v>
+        <v>5285372</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -862,10 +862,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D11" t="n">
-        <v>691789</v>
+        <v>693389</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12063</v>
+        <v>12070</v>
       </c>
       <c r="D12" t="n">
-        <v>15188050</v>
+        <v>15195206</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -958,10 +958,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
-        <v>16952</v>
+        <v>18452</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15538</v>
+        <v>15548</v>
       </c>
       <c r="D22" t="n">
-        <v>18971763</v>
+        <v>18983614</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1582,10 +1582,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5263</v>
+        <v>5265</v>
       </c>
       <c r="D26" t="n">
-        <v>7685748</v>
+        <v>7688748</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="D28" t="n">
-        <v>2705651</v>
+        <v>2707151</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D31" t="n">
-        <v>627587</v>
+        <v>629087</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6995</v>
+        <v>6998</v>
       </c>
       <c r="D32" t="n">
-        <v>9261374</v>
+        <v>9263795</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2302,10 +2302,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>23864</v>
+        <v>23888</v>
       </c>
       <c r="D41" t="n">
-        <v>29249294</v>
+        <v>29278355</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>8284</v>
+        <v>8289</v>
       </c>
       <c r="D47" t="n">
-        <v>12165219</v>
+        <v>12172719</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4176</v>
+        <v>4178</v>
       </c>
       <c r="D49" t="n">
-        <v>6041978</v>
+        <v>6044978</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="D52" t="n">
-        <v>1109410</v>
+        <v>1113910</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8793</v>
+        <v>8796</v>
       </c>
       <c r="D53" t="n">
-        <v>11166195</v>
+        <v>11169360</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3070,10 +3070,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2950</v>
+        <v>2953</v>
       </c>
       <c r="D57" t="n">
-        <v>4288574</v>
+        <v>4293074</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="D59" t="n">
-        <v>1563565</v>
+        <v>1566565</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3310,10 +3310,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>40364</v>
+        <v>40424</v>
       </c>
       <c r="D62" t="n">
-        <v>51852844</v>
+        <v>51921535</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>14286</v>
+        <v>14298</v>
       </c>
       <c r="D67" t="n">
-        <v>20939169</v>
+        <v>20955069</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5831</v>
+        <v>5832</v>
       </c>
       <c r="D69" t="n">
-        <v>8427746</v>
+        <v>8429246</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="D74" t="n">
-        <v>606956</v>
+        <v>611456</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3982,10 +3982,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>50829</v>
+        <v>50887</v>
       </c>
       <c r="D76" t="n">
-        <v>64725097</v>
+        <v>64785307</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4174,10 +4174,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>19638</v>
+        <v>19646</v>
       </c>
       <c r="D80" t="n">
-        <v>28735995</v>
+        <v>28745554</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>10469</v>
+        <v>10486</v>
       </c>
       <c r="D82" t="n">
-        <v>15126801</v>
+        <v>15149061</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1084</v>
+        <v>1088</v>
       </c>
       <c r="D86" t="n">
-        <v>1531035</v>
+        <v>1536931</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>26955</v>
+        <v>26966</v>
       </c>
       <c r="D87" t="n">
-        <v>33874925</v>
+        <v>33888864</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>9299</v>
+        <v>9307</v>
       </c>
       <c r="D91" t="n">
-        <v>13643564</v>
+        <v>13655564</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5403</v>
+        <v>5408</v>
       </c>
       <c r="D93" t="n">
-        <v>7800866</v>
+        <v>7808366</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>23981</v>
+        <v>24007</v>
       </c>
       <c r="D96" t="n">
-        <v>29951618</v>
+        <v>29980555</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -5134,10 +5134,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>9848</v>
+        <v>9852</v>
       </c>
       <c r="D100" t="n">
-        <v>14411178</v>
+        <v>14417178</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -5422,10 +5422,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D106" t="n">
-        <v>820400</v>
+        <v>823400</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -5470,10 +5470,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>93078</v>
+        <v>93175</v>
       </c>
       <c r="D107" t="n">
-        <v>118919543</v>
+        <v>119031783</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -5806,10 +5806,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>33276</v>
+        <v>33303</v>
       </c>
       <c r="D114" t="n">
-        <v>48793636</v>
+        <v>48834058</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D115" t="n">
-        <v>40500</v>
+        <v>42000</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -5902,10 +5902,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>23805</v>
+        <v>23840</v>
       </c>
       <c r="D116" t="n">
-        <v>34352764</v>
+        <v>34401962</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -6238,10 +6238,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2630</v>
+        <v>2639</v>
       </c>
       <c r="D123" t="n">
-        <v>3677285</v>
+        <v>3688374</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -6286,10 +6286,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>30845</v>
+        <v>30879</v>
       </c>
       <c r="D124" t="n">
-        <v>40608350</v>
+        <v>40648596</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6478,10 +6478,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>10945</v>
+        <v>10961</v>
       </c>
       <c r="D128" t="n">
-        <v>16049038</v>
+        <v>16073038</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>3676</v>
+        <v>3684</v>
       </c>
       <c r="D130" t="n">
-        <v>5350604</v>
+        <v>5362604</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6622,10 +6622,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D131" t="n">
-        <v>339662</v>
+        <v>342662</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -6718,10 +6718,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D133" t="n">
-        <v>646747</v>
+        <v>649747</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>17164</v>
+        <v>17181</v>
       </c>
       <c r="D134" t="n">
-        <v>21229067</v>
+        <v>21247089</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -6958,10 +6958,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>8320</v>
+        <v>8326</v>
       </c>
       <c r="D138" t="n">
-        <v>12165326</v>
+        <v>12174098</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>2481</v>
+        <v>2486</v>
       </c>
       <c r="D140" t="n">
-        <v>3543891</v>
+        <v>3551391</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D142" t="n">
-        <v>457739</v>
+        <v>459213</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -7246,10 +7246,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D144" t="n">
-        <v>736714</v>
+        <v>742336</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -7294,10 +7294,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>14893</v>
+        <v>14901</v>
       </c>
       <c r="D145" t="n">
-        <v>18499623</v>
+        <v>18508062</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -7486,10 +7486,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>6637</v>
+        <v>6640</v>
       </c>
       <c r="D149" t="n">
-        <v>9720428</v>
+        <v>9723814</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>6466</v>
+        <v>6468</v>
       </c>
       <c r="D155" t="n">
-        <v>7899715</v>
+        <v>7902015</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -7918,10 +7918,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="D158" t="n">
-        <v>3147279</v>
+        <v>3148779</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>8097</v>
+        <v>8101</v>
       </c>
       <c r="D163" t="n">
-        <v>9969433</v>
+        <v>9974160</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8302,10 +8302,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>3071</v>
+        <v>3077</v>
       </c>
       <c r="D166" t="n">
-        <v>4504740</v>
+        <v>4513740</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8350,10 +8350,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D167" t="n">
-        <v>2168730</v>
+        <v>2170230</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -8494,10 +8494,10 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D170" t="n">
-        <v>248722</v>
+        <v>250222</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -8542,10 +8542,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>6125</v>
+        <v>6132</v>
       </c>
       <c r="D171" t="n">
-        <v>7641632</v>
+        <v>7648187</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -8878,10 +8878,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D178" t="n">
-        <v>1078697</v>
+        <v>1081697</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>17457</v>
+        <v>17470</v>
       </c>
       <c r="D181" t="n">
-        <v>21830426</v>
+        <v>21845241</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -9262,10 +9262,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>6799</v>
+        <v>6806</v>
       </c>
       <c r="D186" t="n">
-        <v>9930545</v>
+        <v>9940519</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>2454</v>
+        <v>2459</v>
       </c>
       <c r="D188" t="n">
-        <v>3529538</v>
+        <v>3537038</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -9550,10 +9550,10 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3323</v>
+        <v>3328</v>
       </c>
       <c r="D192" t="n">
-        <v>4152724</v>
+        <v>4156895</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -9934,10 +9934,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>10089</v>
+        <v>10104</v>
       </c>
       <c r="D200" t="n">
-        <v>12562168</v>
+        <v>12581380</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -10126,10 +10126,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3678</v>
+        <v>3682</v>
       </c>
       <c r="D204" t="n">
-        <v>5398547</v>
+        <v>5403810</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -10222,10 +10222,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1790</v>
+        <v>1792</v>
       </c>
       <c r="D206" t="n">
-        <v>2572843</v>
+        <v>2575843</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -10270,10 +10270,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D207" t="n">
-        <v>287843</v>
+        <v>289343</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D209" t="n">
-        <v>385682</v>
+        <v>387182</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>18553</v>
+        <v>18571</v>
       </c>
       <c r="D210" t="n">
-        <v>23041603</v>
+        <v>23059572</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -10606,10 +10606,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>8113</v>
+        <v>8116</v>
       </c>
       <c r="D214" t="n">
-        <v>11909908</v>
+        <v>11914408</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -10654,10 +10654,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="D215" t="n">
-        <v>1918762</v>
+        <v>1921762</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10702,10 +10702,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D216" t="n">
-        <v>411363</v>
+        <v>412863</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -10798,10 +10798,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>28076</v>
+        <v>28097</v>
       </c>
       <c r="D218" t="n">
-        <v>35184034</v>
+        <v>35203473</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -10990,10 +10990,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>11050</v>
+        <v>11053</v>
       </c>
       <c r="D222" t="n">
-        <v>16127494</v>
+        <v>16131994</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -11086,10 +11086,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>2869</v>
+        <v>2873</v>
       </c>
       <c r="D224" t="n">
-        <v>4128059</v>
+        <v>4134059</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -11230,10 +11230,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D227" t="n">
-        <v>1040371</v>
+        <v>1043178</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -11278,10 +11278,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>31444</v>
+        <v>31479</v>
       </c>
       <c r="D228" t="n">
-        <v>39448627</v>
+        <v>39489835</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>15903</v>
+        <v>15910</v>
       </c>
       <c r="D233" t="n">
-        <v>23324234</v>
+        <v>23333772</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11566,10 +11566,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D234" t="n">
-        <v>16500</v>
+        <v>18000</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -11614,10 +11614,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>3001</v>
+        <v>3004</v>
       </c>
       <c r="D235" t="n">
-        <v>4304861</v>
+        <v>4309361</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="D238" t="n">
-        <v>1377650</v>
+        <v>1381628</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -11806,10 +11806,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>26428</v>
+        <v>26444</v>
       </c>
       <c r="D239" t="n">
-        <v>33190394</v>
+        <v>33210234</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -11998,10 +11998,10 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D243" t="n">
-        <v>339775</v>
+        <v>341275</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -12094,10 +12094,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>11810</v>
+        <v>11815</v>
       </c>
       <c r="D245" t="n">
-        <v>17297042</v>
+        <v>17304542</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -12334,10 +12334,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D250" t="n">
-        <v>814621</v>
+        <v>816121</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -12382,10 +12382,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>8482</v>
+        <v>8494</v>
       </c>
       <c r="D251" t="n">
-        <v>10592598</v>
+        <v>10607602</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>10850</v>
+        <v>10861</v>
       </c>
       <c r="D261" t="n">
-        <v>13846050</v>
+        <v>13857556</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -13054,10 +13054,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>4529</v>
+        <v>4535</v>
       </c>
       <c r="D265" t="n">
-        <v>6643195</v>
+        <v>6652195</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -13150,10 +13150,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>2425</v>
+        <v>2428</v>
       </c>
       <c r="D267" t="n">
-        <v>3509876</v>
+        <v>3514376</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -13198,10 +13198,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D268" t="n">
-        <v>151487</v>
+        <v>152890</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -13294,10 +13294,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>6112</v>
+        <v>6117</v>
       </c>
       <c r="D270" t="n">
-        <v>7512678</v>
+        <v>7516200</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -13726,10 +13726,10 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>20932</v>
+        <v>20960</v>
       </c>
       <c r="D279" t="n">
-        <v>26326659</v>
+        <v>26356883</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -13918,10 +13918,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>8621</v>
+        <v>8630</v>
       </c>
       <c r="D283" t="n">
-        <v>12619372</v>
+        <v>12632872</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -14158,10 +14158,10 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D288" t="n">
-        <v>868347</v>
+        <v>869847</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>18090</v>
+        <v>18100</v>
       </c>
       <c r="D290" t="n">
-        <v>22352857</v>
+        <v>22362294</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14494,10 +14494,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>7741</v>
+        <v>7748</v>
       </c>
       <c r="D295" t="n">
-        <v>11349799</v>
+        <v>11360210</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -14542,10 +14542,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>3684</v>
+        <v>3688</v>
       </c>
       <c r="D296" t="n">
-        <v>5332467</v>
+        <v>5336467</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -14686,10 +14686,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D299" t="n">
-        <v>598138</v>
+        <v>599638</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14734,10 +14734,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>10177</v>
+        <v>10181</v>
       </c>
       <c r="D300" t="n">
-        <v>12727642</v>
+        <v>12731893</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>4142</v>
+        <v>4144</v>
       </c>
       <c r="D304" t="n">
-        <v>6059836</v>
+        <v>6062836</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -14974,10 +14974,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>1402</v>
+        <v>1405</v>
       </c>
       <c r="D305" t="n">
-        <v>2023558</v>
+        <v>2028058</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -15166,10 +15166,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D309" t="n">
-        <v>364047</v>
+        <v>365547</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -15214,10 +15214,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>10159</v>
+        <v>10166</v>
       </c>
       <c r="D310" t="n">
-        <v>13228984</v>
+        <v>13239484</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -15406,10 +15406,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>4092</v>
+        <v>4093</v>
       </c>
       <c r="D314" t="n">
-        <v>5980732</v>
+        <v>5982232</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -15454,10 +15454,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>2660</v>
+        <v>2665</v>
       </c>
       <c r="D315" t="n">
-        <v>3877064</v>
+        <v>3884564</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -15598,10 +15598,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>12315</v>
+        <v>12328</v>
       </c>
       <c r="D318" t="n">
-        <v>16125985</v>
+        <v>16139024</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15790,10 +15790,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>4186</v>
+        <v>4191</v>
       </c>
       <c r="D322" t="n">
-        <v>6140294</v>
+        <v>6148292</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -15886,10 +15886,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>3017</v>
+        <v>3018</v>
       </c>
       <c r="D324" t="n">
-        <v>4377867</v>
+        <v>4379367</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -15934,10 +15934,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D325" t="n">
-        <v>401756</v>
+        <v>404716</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -15982,10 +15982,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D326" t="n">
-        <v>306921</v>
+        <v>308321</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -16030,10 +16030,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>7346</v>
+        <v>7348</v>
       </c>
       <c r="D327" t="n">
-        <v>9062675</v>
+        <v>9065131</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16270,10 +16270,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>2460</v>
+        <v>2463</v>
       </c>
       <c r="D332" t="n">
-        <v>3607867</v>
+        <v>3611287</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -16366,10 +16366,10 @@
         </is>
       </c>
       <c r="C334" t="n">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D334" t="n">
-        <v>1250235</v>
+        <v>1251735</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -16510,10 +16510,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>8233</v>
+        <v>8235</v>
       </c>
       <c r="D337" t="n">
-        <v>10259570</v>
+        <v>10260182</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -16750,10 +16750,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>3384</v>
+        <v>3387</v>
       </c>
       <c r="D342" t="n">
-        <v>4942617</v>
+        <v>4947117</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -16798,10 +16798,10 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>1419</v>
+        <v>1421</v>
       </c>
       <c r="D343" t="n">
-        <v>2037544</v>
+        <v>2040544</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -16990,10 +16990,10 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>35735</v>
+        <v>35778</v>
       </c>
       <c r="D347" t="n">
-        <v>44743212</v>
+        <v>44792355</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -17278,10 +17278,10 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>17827</v>
+        <v>17835</v>
       </c>
       <c r="D353" t="n">
-        <v>26049183</v>
+        <v>26061142</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -17422,10 +17422,10 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>8841</v>
+        <v>8844</v>
       </c>
       <c r="D356" t="n">
-        <v>12732036</v>
+        <v>12736536</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -17518,10 +17518,10 @@
         </is>
       </c>
       <c r="C358" t="n">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="D358" t="n">
-        <v>1505096</v>
+        <v>1508096</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
@@ -17566,10 +17566,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>4278</v>
+        <v>4279</v>
       </c>
       <c r="D359" t="n">
-        <v>5292960</v>
+        <v>5294460</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -17950,10 +17950,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>21140</v>
+        <v>21161</v>
       </c>
       <c r="D367" t="n">
-        <v>26249391</v>
+        <v>26273570</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -18142,10 +18142,10 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>10601</v>
+        <v>10608</v>
       </c>
       <c r="D371" t="n">
-        <v>15539075</v>
+        <v>15549575</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -18238,10 +18238,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>5183</v>
+        <v>5190</v>
       </c>
       <c r="D373" t="n">
-        <v>7506242</v>
+        <v>7516742</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -18334,10 +18334,10 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D375" t="n">
-        <v>624281</v>
+        <v>627281</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -18382,10 +18382,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>15483</v>
+        <v>15495</v>
       </c>
       <c r="D376" t="n">
-        <v>19295114</v>
+        <v>19305303</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -18574,10 +18574,10 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>6983</v>
+        <v>6985</v>
       </c>
       <c r="D380" t="n">
-        <v>10222595</v>
+        <v>10225595</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -18670,10 +18670,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>2812</v>
+        <v>2816</v>
       </c>
       <c r="D382" t="n">
-        <v>4035632</v>
+        <v>4041632</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -18718,10 +18718,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D383" t="n">
-        <v>1215176</v>
+        <v>1216676</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18814,10 +18814,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>19680</v>
+        <v>19700</v>
       </c>
       <c r="D385" t="n">
-        <v>24393851</v>
+        <v>24414653</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -19006,10 +19006,10 @@
         </is>
       </c>
       <c r="C389" t="n">
-        <v>7627</v>
+        <v>7631</v>
       </c>
       <c r="D389" t="n">
-        <v>11200533</v>
+        <v>11206533</v>
       </c>
       <c r="E389" t="inlineStr">
         <is>
@@ -19102,10 +19102,10 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>3062</v>
+        <v>3066</v>
       </c>
       <c r="D391" t="n">
-        <v>4458060</v>
+        <v>4464060</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -19246,10 +19246,10 @@
         </is>
       </c>
       <c r="C394" t="n">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D394" t="n">
-        <v>730479</v>
+        <v>731979</v>
       </c>
       <c r="E394" t="inlineStr">
         <is>
@@ -19294,10 +19294,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>4443</v>
+        <v>4448</v>
       </c>
       <c r="D395" t="n">
-        <v>5538996</v>
+        <v>5543957</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19630,10 +19630,10 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>24188</v>
+        <v>24209</v>
       </c>
       <c r="D402" t="n">
-        <v>29823354</v>
+        <v>29843487</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -19774,10 +19774,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>9947</v>
+        <v>9950</v>
       </c>
       <c r="D405" t="n">
-        <v>14631439</v>
+        <v>14635939</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -19870,10 +19870,10 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>6698</v>
+        <v>6701</v>
       </c>
       <c r="D407" t="n">
-        <v>9736351</v>
+        <v>9740851</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -19966,10 +19966,10 @@
         </is>
       </c>
       <c r="C409" t="n">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D409" t="n">
-        <v>620182</v>
+        <v>623932</v>
       </c>
       <c r="E409" t="inlineStr">
         <is>
@@ -20014,10 +20014,10 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>12140</v>
+        <v>12149</v>
       </c>
       <c r="D410" t="n">
-        <v>14874294</v>
+        <v>14881741</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -20254,10 +20254,10 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>5651</v>
+        <v>5657</v>
       </c>
       <c r="D415" t="n">
-        <v>8252500</v>
+        <v>8260371</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -20350,10 +20350,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="D417" t="n">
-        <v>2894189</v>
+        <v>2895689</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -20446,10 +20446,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D419" t="n">
-        <v>344446</v>
+        <v>346560</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -20494,10 +20494,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>37814</v>
+        <v>37839</v>
       </c>
       <c r="D420" t="n">
-        <v>51291641</v>
+        <v>51324684</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -20686,10 +20686,10 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>9361</v>
+        <v>9383</v>
       </c>
       <c r="D424" t="n">
-        <v>13751758</v>
+        <v>13784762</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -20782,10 +20782,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>8722</v>
+        <v>8725</v>
       </c>
       <c r="D426" t="n">
-        <v>12655426</v>
+        <v>12659926</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -20878,10 +20878,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D428" t="n">
-        <v>841550</v>
+        <v>845430</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -20926,10 +20926,10 @@
         </is>
       </c>
       <c r="C429" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D429" t="n">
-        <v>825060</v>
+        <v>826560</v>
       </c>
       <c r="E429" t="inlineStr">
         <is>
@@ -20974,10 +20974,10 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>16485</v>
+        <v>16517</v>
       </c>
       <c r="D430" t="n">
-        <v>30791225</v>
+        <v>30882945</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -21118,10 +21118,10 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>3809</v>
+        <v>3831</v>
       </c>
       <c r="D433" t="n">
-        <v>7627695</v>
+        <v>7680181</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -21214,10 +21214,10 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>5421</v>
+        <v>5437</v>
       </c>
       <c r="D435" t="n">
-        <v>10978084</v>
+        <v>11023520</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -21310,10 +21310,10 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D437" t="n">
-        <v>499340</v>
+        <v>507340</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
@@ -21358,10 +21358,10 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D438" t="n">
-        <v>621150</v>
+        <v>626650</v>
       </c>
       <c r="E438" t="inlineStr">
         <is>
@@ -21454,10 +21454,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>12064</v>
+        <v>12073</v>
       </c>
       <c r="D440" t="n">
-        <v>14905588</v>
+        <v>14918717</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -21598,10 +21598,10 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>4117</v>
+        <v>4123</v>
       </c>
       <c r="D443" t="n">
-        <v>6037738</v>
+        <v>6046107</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -21838,10 +21838,10 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>69878</v>
+        <v>69938</v>
       </c>
       <c r="D448" t="n">
-        <v>86410132</v>
+        <v>86471835</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
@@ -22030,10 +22030,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>27182</v>
+        <v>27202</v>
       </c>
       <c r="D452" t="n">
-        <v>39792478</v>
+        <v>39820781</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -22126,10 +22126,10 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>14909</v>
+        <v>14926</v>
       </c>
       <c r="D454" t="n">
-        <v>21632184</v>
+        <v>21656040</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -22318,10 +22318,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>1375</v>
+        <v>1379</v>
       </c>
       <c r="D458" t="n">
-        <v>1942640</v>
+        <v>1948640</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -22414,10 +22414,10 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>21171</v>
+        <v>21193</v>
       </c>
       <c r="D460" t="n">
-        <v>26802484</v>
+        <v>26827407</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
@@ -22606,10 +22606,10 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>8320</v>
+        <v>8328</v>
       </c>
       <c r="D464" t="n">
-        <v>12197916</v>
+        <v>12209916</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>5750</v>
+        <v>5757</v>
       </c>
       <c r="D466" t="n">
-        <v>8346420</v>
+        <v>8356920</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -22798,10 +22798,10 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D468" t="n">
-        <v>512510</v>
+        <v>514010</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -22846,10 +22846,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>34921</v>
+        <v>34952</v>
       </c>
       <c r="D469" t="n">
-        <v>42533380</v>
+        <v>42564306</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -23038,10 +23038,10 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>12192</v>
+        <v>12200</v>
       </c>
       <c r="D473" t="n">
-        <v>17822048</v>
+        <v>17834048</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -23134,10 +23134,10 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>5328</v>
+        <v>5330</v>
       </c>
       <c r="D475" t="n">
-        <v>7723145</v>
+        <v>7726145</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
@@ -23230,10 +23230,10 @@
         </is>
       </c>
       <c r="C477" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D477" t="n">
-        <v>675266</v>
+        <v>676766</v>
       </c>
       <c r="E477" t="inlineStr">
         <is>
@@ -23278,10 +23278,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>15616</v>
+        <v>15634</v>
       </c>
       <c r="D478" t="n">
-        <v>19003646</v>
+        <v>19024145</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23518,10 +23518,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>4701</v>
+        <v>4705</v>
       </c>
       <c r="D483" t="n">
-        <v>6903543</v>
+        <v>6909543</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -23614,10 +23614,10 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>2307</v>
+        <v>2310</v>
       </c>
       <c r="D485" t="n">
-        <v>3322793</v>
+        <v>3327293</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
@@ -23710,10 +23710,10 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D487" t="n">
-        <v>561528</v>
+        <v>562950</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -23758,10 +23758,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>43114</v>
+        <v>43178</v>
       </c>
       <c r="D488" t="n">
-        <v>56382846</v>
+        <v>56465289</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23950,10 +23950,10 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>15022</v>
+        <v>15049</v>
       </c>
       <c r="D492" t="n">
-        <v>22075974</v>
+        <v>22116474</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
@@ -24046,10 +24046,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>14569</v>
+        <v>14605</v>
       </c>
       <c r="D494" t="n">
-        <v>21268478</v>
+        <v>21321081</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -24190,10 +24190,10 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>78462</v>
+        <v>78607</v>
       </c>
       <c r="D497" t="n">
-        <v>103926571</v>
+        <v>104096529</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -24430,10 +24430,10 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>27088</v>
+        <v>27140</v>
       </c>
       <c r="D502" t="n">
-        <v>39724334</v>
+        <v>39800419</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -24526,10 +24526,10 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>28452</v>
+        <v>28501</v>
       </c>
       <c r="D504" t="n">
-        <v>41334766</v>
+        <v>41407398</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
@@ -24670,10 +24670,10 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="D507" t="n">
-        <v>1227925</v>
+        <v>1233014</v>
       </c>
       <c r="E507" t="inlineStr">
         <is>
@@ -24718,10 +24718,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>187899</v>
+        <v>188195</v>
       </c>
       <c r="D508" t="n">
-        <v>245964034</v>
+        <v>246314825</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -24958,10 +24958,10 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="D513" t="n">
-        <v>837149</v>
+        <v>844649</v>
       </c>
       <c r="E513" t="inlineStr">
         <is>
@@ -25054,10 +25054,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>96900</v>
+        <v>97117</v>
       </c>
       <c r="D515" t="n">
-        <v>142283793</v>
+        <v>142600856</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -25102,10 +25102,10 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D516" t="n">
-        <v>525699</v>
+        <v>527199</v>
       </c>
       <c r="E516" t="inlineStr">
         <is>
@@ -25198,10 +25198,10 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>74144</v>
+        <v>74301</v>
       </c>
       <c r="D518" t="n">
-        <v>107738267</v>
+        <v>107970139</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
@@ -25294,10 +25294,10 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="D520" t="n">
-        <v>1683009</v>
+        <v>1686009</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>3914</v>
+        <v>3934</v>
       </c>
       <c r="D522" t="n">
-        <v>5520612</v>
+        <v>5547158</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
@@ -25534,10 +25534,10 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>49254</v>
+        <v>49313</v>
       </c>
       <c r="D525" t="n">
-        <v>64267689</v>
+        <v>64334161</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
@@ -25630,10 +25630,10 @@
         </is>
       </c>
       <c r="C527" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D527" t="n">
-        <v>15000</v>
+        <v>16500</v>
       </c>
       <c r="E527" t="inlineStr">
         <is>
@@ -25774,10 +25774,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>16890</v>
+        <v>16909</v>
       </c>
       <c r="D530" t="n">
-        <v>24799860</v>
+        <v>24827510</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -25870,10 +25870,10 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>15460</v>
+        <v>15494</v>
       </c>
       <c r="D532" t="n">
-        <v>22406231</v>
+        <v>22451548</v>
       </c>
       <c r="E532" t="inlineStr">
         <is>
@@ -26014,10 +26014,10 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="D535" t="n">
-        <v>635985</v>
+        <v>640485</v>
       </c>
       <c r="E535" t="inlineStr">
         <is>
@@ -26110,10 +26110,10 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>86172</v>
+        <v>86393</v>
       </c>
       <c r="D537" t="n">
-        <v>116525916</v>
+        <v>116801557</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
@@ -26302,10 +26302,10 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>26662</v>
+        <v>26701</v>
       </c>
       <c r="D541" t="n">
-        <v>39301198</v>
+        <v>39359219</v>
       </c>
       <c r="E541" t="inlineStr">
         <is>
@@ -26398,10 +26398,10 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>31291</v>
+        <v>31355</v>
       </c>
       <c r="D543" t="n">
-        <v>45771610</v>
+        <v>45864678</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -26590,10 +26590,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>1146</v>
+        <v>1151</v>
       </c>
       <c r="D547" t="n">
-        <v>1619637</v>
+        <v>1627137</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -26638,10 +26638,10 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>68073</v>
+        <v>68178</v>
       </c>
       <c r="D548" t="n">
-        <v>90314449</v>
+        <v>90449502</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
@@ -26878,10 +26878,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>20222</v>
+        <v>20235</v>
       </c>
       <c r="D553" t="n">
-        <v>29699207</v>
+        <v>29718707</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
@@ -26974,10 +26974,10 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>23026</v>
+        <v>23064</v>
       </c>
       <c r="D555" t="n">
-        <v>33475213</v>
+        <v>33526413</v>
       </c>
       <c r="E555" t="inlineStr">
         <is>
@@ -27070,10 +27070,10 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>838</v>
+        <v>847</v>
       </c>
       <c r="D557" t="n">
-        <v>1180569</v>
+        <v>1193850</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
@@ -27118,10 +27118,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>51888</v>
+        <v>51977</v>
       </c>
       <c r="D558" t="n">
-        <v>69362514</v>
+        <v>69474315</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -27310,10 +27310,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>15804</v>
+        <v>15814</v>
       </c>
       <c r="D562" t="n">
-        <v>23278604</v>
+        <v>23291891</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -27406,10 +27406,10 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>18068</v>
+        <v>18110</v>
       </c>
       <c r="D564" t="n">
-        <v>26236254</v>
+        <v>26292617</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
@@ -27502,10 +27502,10 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D566" t="n">
-        <v>543098</v>
+        <v>546098</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
@@ -27550,10 +27550,10 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>48770</v>
+        <v>48823</v>
       </c>
       <c r="D567" t="n">
-        <v>63359876</v>
+        <v>63424986</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="C570" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D570" t="n">
-        <v>211248</v>
+        <v>212748</v>
       </c>
       <c r="E570" t="inlineStr">
         <is>
@@ -27742,10 +27742,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>17828</v>
+        <v>17844</v>
       </c>
       <c r="D571" t="n">
-        <v>26139152</v>
+        <v>26162144</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -27838,10 +27838,10 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>15455</v>
+        <v>15467</v>
       </c>
       <c r="D573" t="n">
-        <v>22357195</v>
+        <v>22374553</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
@@ -27982,10 +27982,10 @@
         </is>
       </c>
       <c r="C576" t="n">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D576" t="n">
-        <v>634238</v>
+        <v>635738</v>
       </c>
       <c r="E576" t="inlineStr">
         <is>
@@ -28030,10 +28030,10 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>49504</v>
+        <v>49534</v>
       </c>
       <c r="D577" t="n">
-        <v>65998563</v>
+        <v>66040199</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
@@ -28078,10 +28078,10 @@
         </is>
       </c>
       <c r="C578" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D578" t="n">
-        <v>45036</v>
+        <v>45310</v>
       </c>
       <c r="E578" t="inlineStr">
         <is>
@@ -28318,10 +28318,10 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>15269</v>
+        <v>15278</v>
       </c>
       <c r="D583" t="n">
-        <v>22376939</v>
+        <v>22390110</v>
       </c>
       <c r="E583" t="inlineStr">
         <is>
@@ -28366,10 +28366,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>4146</v>
+        <v>4149</v>
       </c>
       <c r="D584" t="n">
-        <v>5983326</v>
+        <v>5987826</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -28606,10 +28606,10 @@
         </is>
       </c>
       <c r="C589" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D589" t="n">
-        <v>703366</v>
+        <v>704259</v>
       </c>
       <c r="E589" t="inlineStr">
         <is>
@@ -28654,10 +28654,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>19758</v>
+        <v>19793</v>
       </c>
       <c r="D590" t="n">
-        <v>26121567</v>
+        <v>26168853</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -28798,10 +28798,10 @@
         </is>
       </c>
       <c r="C593" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D593" t="n">
-        <v>82406</v>
+        <v>83906</v>
       </c>
       <c r="E593" t="inlineStr">
         <is>
@@ -28846,10 +28846,10 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>8181</v>
+        <v>8193</v>
       </c>
       <c r="D594" t="n">
-        <v>11901340</v>
+        <v>11919200</v>
       </c>
       <c r="E594" t="inlineStr">
         <is>
@@ -28942,10 +28942,10 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>5804</v>
+        <v>5815</v>
       </c>
       <c r="D596" t="n">
-        <v>8353327</v>
+        <v>8369992</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -29182,10 +29182,10 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>28701</v>
+        <v>28736</v>
       </c>
       <c r="D601" t="n">
-        <v>57766848</v>
+        <v>57862448</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
@@ -29230,10 +29230,10 @@
         </is>
       </c>
       <c r="C602" t="n">
-        <v>2860</v>
+        <v>2867</v>
       </c>
       <c r="D602" t="n">
-        <v>5681227</v>
+        <v>5702117</v>
       </c>
       <c r="E602" t="inlineStr">
         <is>
@@ -29470,10 +29470,10 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>23967</v>
+        <v>23994</v>
       </c>
       <c r="D607" t="n">
-        <v>29918977</v>
+        <v>29951506</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -29710,10 +29710,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>9690</v>
+        <v>9694</v>
       </c>
       <c r="D612" t="n">
-        <v>14178843</v>
+        <v>14184143</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -29806,10 +29806,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>3693</v>
+        <v>3694</v>
       </c>
       <c r="D614" t="n">
-        <v>5306123</v>
+        <v>5307623</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -29998,10 +29998,10 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>16104</v>
+        <v>16118</v>
       </c>
       <c r="D618" t="n">
-        <v>20104519</v>
+        <v>20122240</v>
       </c>
       <c r="E618" t="inlineStr">
         <is>
@@ -30190,10 +30190,10 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>6245</v>
+        <v>6256</v>
       </c>
       <c r="D622" t="n">
-        <v>9165170</v>
+        <v>9181581</v>
       </c>
       <c r="E622" t="inlineStr">
         <is>
@@ -30430,10 +30430,10 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>14923</v>
+        <v>14934</v>
       </c>
       <c r="D627" t="n">
-        <v>18742638</v>
+        <v>18752497</v>
       </c>
       <c r="E627" t="inlineStr">
         <is>
@@ -30622,10 +30622,10 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>5564</v>
+        <v>5566</v>
       </c>
       <c r="D631" t="n">
-        <v>8152896</v>
+        <v>8155896</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -30670,10 +30670,10 @@
         </is>
       </c>
       <c r="C632" t="n">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="D632" t="n">
-        <v>1871191</v>
+        <v>1872691</v>
       </c>
       <c r="E632" t="inlineStr">
         <is>
@@ -30814,10 +30814,10 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D635" t="n">
-        <v>460107</v>
+        <v>461607</v>
       </c>
       <c r="E635" t="inlineStr">
         <is>
@@ -30862,10 +30862,10 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>8166</v>
+        <v>8167</v>
       </c>
       <c r="D636" t="n">
-        <v>10453331</v>
+        <v>10454815</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -31102,10 +31102,10 @@
         </is>
       </c>
       <c r="C641" t="n">
-        <v>2723</v>
+        <v>2724</v>
       </c>
       <c r="D641" t="n">
-        <v>3988557</v>
+        <v>3990057</v>
       </c>
       <c r="E641" t="inlineStr">
         <is>
@@ -31294,10 +31294,10 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>31366</v>
+        <v>31394</v>
       </c>
       <c r="D645" t="n">
-        <v>38474469</v>
+        <v>38503569</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
@@ -31534,10 +31534,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>11910</v>
+        <v>11916</v>
       </c>
       <c r="D650" t="n">
-        <v>17468671</v>
+        <v>17476959</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -31630,10 +31630,10 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>5452</v>
+        <v>5459</v>
       </c>
       <c r="D652" t="n">
-        <v>7907427</v>
+        <v>7917767</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -31822,10 +31822,10 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>12341</v>
+        <v>12344</v>
       </c>
       <c r="D656" t="n">
-        <v>14840253</v>
+        <v>14843512</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
@@ -32062,10 +32062,10 @@
         </is>
       </c>
       <c r="C661" t="n">
-        <v>3859</v>
+        <v>3861</v>
       </c>
       <c r="D661" t="n">
-        <v>5648407</v>
+        <v>5651407</v>
       </c>
       <c r="E661" t="inlineStr">
         <is>
@@ -32110,10 +32110,10 @@
         </is>
       </c>
       <c r="C662" t="n">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D662" t="n">
-        <v>1716822</v>
+        <v>1718322</v>
       </c>
       <c r="E662" t="inlineStr">
         <is>
@@ -32302,10 +32302,10 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>30390</v>
+        <v>30411</v>
       </c>
       <c r="D666" t="n">
-        <v>37652035</v>
+        <v>37670715</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -32494,10 +32494,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>11312</v>
+        <v>11320</v>
       </c>
       <c r="D670" t="n">
-        <v>16612907</v>
+        <v>16624907</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -32590,10 +32590,10 @@
         </is>
       </c>
       <c r="C672" t="n">
-        <v>3304</v>
+        <v>3307</v>
       </c>
       <c r="D672" t="n">
-        <v>4762162</v>
+        <v>4766250</v>
       </c>
       <c r="E672" t="inlineStr">
         <is>
@@ -32782,10 +32782,10 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>8156</v>
+        <v>8164</v>
       </c>
       <c r="D676" t="n">
-        <v>10300955</v>
+        <v>10307342</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -32974,10 +32974,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="D680" t="n">
-        <v>2026195</v>
+        <v>2027695</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33118,10 +33118,10 @@
         </is>
       </c>
       <c r="C683" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D683" t="n">
-        <v>283868</v>
+        <v>286868</v>
       </c>
       <c r="E683" t="inlineStr">
         <is>
@@ -33166,10 +33166,10 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>4159</v>
+        <v>4167</v>
       </c>
       <c r="D684" t="n">
-        <v>4999062</v>
+        <v>5006263</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -33358,10 +33358,10 @@
         </is>
       </c>
       <c r="C688" t="n">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D688" t="n">
-        <v>1244565</v>
+        <v>1247565</v>
       </c>
       <c r="E688" t="inlineStr">
         <is>
@@ -33454,10 +33454,10 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D690" t="n">
-        <v>695077</v>
+        <v>696577</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -33550,10 +33550,10 @@
         </is>
       </c>
       <c r="C692" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D692" t="n">
-        <v>239110</v>
+        <v>240106</v>
       </c>
       <c r="E692" t="inlineStr">
         <is>
@@ -33598,10 +33598,10 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>10138</v>
+        <v>10151</v>
       </c>
       <c r="D693" t="n">
-        <v>12551437</v>
+        <v>12567302</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -33790,10 +33790,10 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>3686</v>
+        <v>3688</v>
       </c>
       <c r="D697" t="n">
-        <v>5434439</v>
+        <v>5436890</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -34030,10 +34030,10 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>20882</v>
+        <v>20895</v>
       </c>
       <c r="D702" t="n">
-        <v>25497044</v>
+        <v>25511319</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -34222,10 +34222,10 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>6105</v>
+        <v>6110</v>
       </c>
       <c r="D706" t="n">
-        <v>8910334</v>
+        <v>8917834</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -34318,10 +34318,10 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>2458</v>
+        <v>2460</v>
       </c>
       <c r="D708" t="n">
-        <v>3538202</v>
+        <v>3539928</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
@@ -34414,10 +34414,10 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D710" t="n">
-        <v>542065</v>
+        <v>543565</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -34558,10 +34558,10 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>82899</v>
+        <v>82986</v>
       </c>
       <c r="D713" t="n">
-        <v>104060575</v>
+        <v>104160335</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -34798,10 +34798,10 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>29006</v>
+        <v>29028</v>
       </c>
       <c r="D718" t="n">
-        <v>42548560</v>
+        <v>42581230</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -34942,10 +34942,10 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>14924</v>
+        <v>14947</v>
       </c>
       <c r="D721" t="n">
-        <v>21530095</v>
+        <v>21561991</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -35086,10 +35086,10 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>2146</v>
+        <v>2151</v>
       </c>
       <c r="D724" t="n">
-        <v>3094940</v>
+        <v>3101809</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
@@ -35182,10 +35182,10 @@
         </is>
       </c>
       <c r="C726" t="n">
-        <v>1578</v>
+        <v>1587</v>
       </c>
       <c r="D726" t="n">
-        <v>2202610</v>
+        <v>2214080</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
@@ -35230,10 +35230,10 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>12095</v>
+        <v>12103</v>
       </c>
       <c r="D727" t="n">
-        <v>14718977</v>
+        <v>14726862</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -35470,10 +35470,10 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="D732" t="n">
-        <v>2342791</v>
+        <v>2346289</v>
       </c>
       <c r="E732" t="inlineStr">
         <is>
@@ -35614,10 +35614,10 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>19040</v>
+        <v>19051</v>
       </c>
       <c r="D735" t="n">
-        <v>23388199</v>
+        <v>23399348</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
@@ -35806,10 +35806,10 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>7306</v>
+        <v>7311</v>
       </c>
       <c r="D739" t="n">
-        <v>10684349</v>
+        <v>10691849</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -35902,10 +35902,10 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>2402</v>
+        <v>2405</v>
       </c>
       <c r="D741" t="n">
-        <v>3447522</v>
+        <v>3449950</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -35998,10 +35998,10 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D743" t="n">
-        <v>480274</v>
+        <v>484774</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -36046,10 +36046,10 @@
         </is>
       </c>
       <c r="C744" t="n">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D744" t="n">
-        <v>590079</v>
+        <v>591579</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -36142,10 +36142,10 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>12497</v>
+        <v>12505</v>
       </c>
       <c r="D746" t="n">
-        <v>15366141</v>
+        <v>15372061</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -36334,10 +36334,10 @@
         </is>
       </c>
       <c r="C750" t="n">
-        <v>4520</v>
+        <v>4525</v>
       </c>
       <c r="D750" t="n">
-        <v>6620887</v>
+        <v>6627787</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -36574,10 +36574,10 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>31839</v>
+        <v>31848</v>
       </c>
       <c r="D755" t="n">
-        <v>39525295</v>
+        <v>39533836</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
@@ -36814,10 +36814,10 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>13565</v>
+        <v>13574</v>
       </c>
       <c r="D760" t="n">
-        <v>19838542</v>
+        <v>19852042</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -36910,10 +36910,10 @@
         </is>
       </c>
       <c r="C762" t="n">
-        <v>4591</v>
+        <v>4596</v>
       </c>
       <c r="D762" t="n">
-        <v>6560080</v>
+        <v>6567580</v>
       </c>
       <c r="E762" t="inlineStr">
         <is>
@@ -37054,10 +37054,10 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="D765" t="n">
-        <v>1153911</v>
+        <v>1158411</v>
       </c>
       <c r="E765" t="inlineStr">
         <is>
@@ -37150,10 +37150,10 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>13320</v>
+        <v>13330</v>
       </c>
       <c r="D767" t="n">
-        <v>16379041</v>
+        <v>16389243</v>
       </c>
       <c r="E767" t="inlineStr">
         <is>
@@ -37246,10 +37246,10 @@
         </is>
       </c>
       <c r="C769" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D769" t="n">
-        <v>124215</v>
+        <v>127215</v>
       </c>
       <c r="E769" t="inlineStr">
         <is>
@@ -37294,10 +37294,10 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>4952</v>
+        <v>4956</v>
       </c>
       <c r="D770" t="n">
-        <v>7234643</v>
+        <v>7240643</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -37342,10 +37342,10 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="D771" t="n">
-        <v>1816582</v>
+        <v>1821082</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -37438,10 +37438,10 @@
         </is>
       </c>
       <c r="C773" t="n">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D773" t="n">
-        <v>682271</v>
+        <v>686324</v>
       </c>
       <c r="E773" t="inlineStr">
         <is>
@@ -37486,10 +37486,10 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>7372</v>
+        <v>7384</v>
       </c>
       <c r="D774" t="n">
-        <v>8590695</v>
+        <v>8600349</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -37726,10 +37726,10 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="D779" t="n">
-        <v>1603892</v>
+        <v>1606892</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -37774,10 +37774,10 @@
         </is>
       </c>
       <c r="C780" t="n">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D780" t="n">
-        <v>224240</v>
+        <v>225740</v>
       </c>
       <c r="E780" t="inlineStr">
         <is>
@@ -37822,10 +37822,10 @@
         </is>
       </c>
       <c r="C781" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D781" t="n">
-        <v>261737</v>
+        <v>261890</v>
       </c>
       <c r="E781" t="inlineStr">
         <is>
@@ -37870,10 +37870,10 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>18340</v>
+        <v>18364</v>
       </c>
       <c r="D782" t="n">
-        <v>22217876</v>
+        <v>22245706</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -38206,10 +38206,10 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>3745</v>
+        <v>3748</v>
       </c>
       <c r="D789" t="n">
-        <v>5467744</v>
+        <v>5471520</v>
       </c>
       <c r="E789" t="inlineStr">
         <is>
@@ -38350,10 +38350,10 @@
         </is>
       </c>
       <c r="C792" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D792" t="n">
-        <v>509458</v>
+        <v>510958</v>
       </c>
       <c r="E792" t="inlineStr">
         <is>
@@ -38398,10 +38398,10 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>12312</v>
+        <v>12322</v>
       </c>
       <c r="D793" t="n">
-        <v>15491511</v>
+        <v>15499893</v>
       </c>
       <c r="E793" t="inlineStr">
         <is>
@@ -38638,10 +38638,10 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>4208</v>
+        <v>4209</v>
       </c>
       <c r="D798" t="n">
-        <v>6155110</v>
+        <v>6156352</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -38926,10 +38926,10 @@
         </is>
       </c>
       <c r="C804" t="n">
-        <v>35277</v>
+        <v>35297</v>
       </c>
       <c r="D804" t="n">
-        <v>43360795</v>
+        <v>43381640</v>
       </c>
       <c r="E804" t="inlineStr">
         <is>
@@ -39118,10 +39118,10 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>14136</v>
+        <v>14139</v>
       </c>
       <c r="D808" t="n">
-        <v>20670396</v>
+        <v>20673982</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -39214,10 +39214,10 @@
         </is>
       </c>
       <c r="C810" t="n">
-        <v>6650</v>
+        <v>6652</v>
       </c>
       <c r="D810" t="n">
-        <v>9599609</v>
+        <v>9599995</v>
       </c>
       <c r="E810" t="inlineStr">
         <is>
@@ -39262,10 +39262,10 @@
         </is>
       </c>
       <c r="C811" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D811" t="n">
-        <v>814537</v>
+        <v>816037</v>
       </c>
       <c r="E811" t="inlineStr">
         <is>
@@ -39358,10 +39358,10 @@
         </is>
       </c>
       <c r="C813" t="n">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D813" t="n">
-        <v>1249131</v>
+        <v>1252131</v>
       </c>
       <c r="E813" t="inlineStr">
         <is>
@@ -39406,10 +39406,10 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>8360</v>
+        <v>8362</v>
       </c>
       <c r="D814" t="n">
-        <v>10296334</v>
+        <v>10297641</v>
       </c>
       <c r="E814" t="inlineStr">
         <is>
@@ -39694,10 +39694,10 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="D820" t="n">
-        <v>4248869</v>
+        <v>4250369</v>
       </c>
       <c r="E820" t="inlineStr">
         <is>
@@ -39886,10 +39886,10 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>65926</v>
+        <v>65977</v>
       </c>
       <c r="D824" t="n">
-        <v>82144522</v>
+        <v>82200165</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -40126,10 +40126,10 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>23158</v>
+        <v>23176</v>
       </c>
       <c r="D829" t="n">
-        <v>33864196</v>
+        <v>33890510</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
@@ -40270,10 +40270,10 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>14265</v>
+        <v>14280</v>
       </c>
       <c r="D832" t="n">
-        <v>20577909</v>
+        <v>20599275</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -40510,10 +40510,10 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>1790</v>
+        <v>1797</v>
       </c>
       <c r="D837" t="n">
-        <v>2491747</v>
+        <v>2501987</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -40558,10 +40558,10 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>12426</v>
+        <v>12435</v>
       </c>
       <c r="D838" t="n">
-        <v>15501786</v>
+        <v>15508900</v>
       </c>
       <c r="E838" t="inlineStr">
         <is>
@@ -40750,10 +40750,10 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>4509</v>
+        <v>4511</v>
       </c>
       <c r="D842" t="n">
-        <v>6542383</v>
+        <v>6543931</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -40846,10 +40846,10 @@
         </is>
       </c>
       <c r="C844" t="n">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="D844" t="n">
-        <v>2013436</v>
+        <v>2016436</v>
       </c>
       <c r="E844" t="inlineStr">
         <is>
@@ -41038,10 +41038,10 @@
         </is>
       </c>
       <c r="C848" t="n">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D848" t="n">
-        <v>453167</v>
+        <v>460667</v>
       </c>
       <c r="E848" t="inlineStr">
         <is>
@@ -41086,10 +41086,10 @@
         </is>
       </c>
       <c r="C849" t="n">
-        <v>64025</v>
+        <v>64093</v>
       </c>
       <c r="D849" t="n">
-        <v>78958109</v>
+        <v>79024179</v>
       </c>
       <c r="E849" t="inlineStr">
         <is>
@@ -41374,10 +41374,10 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>24072</v>
+        <v>24089</v>
       </c>
       <c r="D855" t="n">
-        <v>35318940</v>
+        <v>35341921</v>
       </c>
       <c r="E855" t="inlineStr">
         <is>
@@ -41470,10 +41470,10 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>15908</v>
+        <v>15922</v>
       </c>
       <c r="D857" t="n">
-        <v>23034477</v>
+        <v>23055308</v>
       </c>
       <c r="E857" t="inlineStr">
         <is>
@@ -41566,10 +41566,10 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>949</v>
+        <v>954</v>
       </c>
       <c r="D859" t="n">
-        <v>1338849</v>
+        <v>1342872</v>
       </c>
       <c r="E859" t="inlineStr">
         <is>
@@ -41614,10 +41614,10 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>1737</v>
+        <v>1743</v>
       </c>
       <c r="D860" t="n">
-        <v>2418792</v>
+        <v>2427792</v>
       </c>
       <c r="E860" t="inlineStr">
         <is>
@@ -41710,10 +41710,10 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>8396</v>
+        <v>8400</v>
       </c>
       <c r="D862" t="n">
-        <v>10257102</v>
+        <v>10262052</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -41806,10 +41806,10 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>2728</v>
+        <v>2730</v>
       </c>
       <c r="D864" t="n">
-        <v>3973305</v>
+        <v>3976305</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -41854,10 +41854,10 @@
         </is>
       </c>
       <c r="C865" t="n">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="D865" t="n">
-        <v>1643445</v>
+        <v>1646445</v>
       </c>
       <c r="E865" t="inlineStr">
         <is>
@@ -41950,10 +41950,10 @@
         </is>
       </c>
       <c r="C867" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D867" t="n">
-        <v>293362</v>
+        <v>294862</v>
       </c>
       <c r="E867" t="inlineStr">
         <is>
@@ -41998,10 +41998,10 @@
         </is>
       </c>
       <c r="C868" t="n">
-        <v>3868</v>
+        <v>3871</v>
       </c>
       <c r="D868" t="n">
-        <v>4973941</v>
+        <v>4976276</v>
       </c>
       <c r="E868" t="inlineStr">
         <is>
@@ -42382,10 +42382,10 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>23987</v>
+        <v>24011</v>
       </c>
       <c r="D876" t="n">
-        <v>29988280</v>
+        <v>30015302</v>
       </c>
       <c r="E876" t="inlineStr">
         <is>
@@ -42526,10 +42526,10 @@
         </is>
       </c>
       <c r="C879" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D879" t="n">
-        <v>60039</v>
+        <v>61539</v>
       </c>
       <c r="E879" t="inlineStr">
         <is>
@@ -42574,10 +42574,10 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>8230</v>
+        <v>8235</v>
       </c>
       <c r="D880" t="n">
-        <v>12012905</v>
+        <v>12020405</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -42670,10 +42670,10 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>5087</v>
+        <v>5093</v>
       </c>
       <c r="D882" t="n">
-        <v>7349968</v>
+        <v>7357353</v>
       </c>
       <c r="E882" t="inlineStr">
         <is>
@@ -42766,10 +42766,10 @@
         </is>
       </c>
       <c r="C884" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D884" t="n">
-        <v>555594</v>
+        <v>557094</v>
       </c>
       <c r="E884" t="inlineStr">
         <is>
@@ -42814,10 +42814,10 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D885" t="n">
-        <v>794827</v>
+        <v>797827</v>
       </c>
       <c r="E885" t="inlineStr">
         <is>
@@ -42910,10 +42910,10 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>15770</v>
+        <v>15782</v>
       </c>
       <c r="D887" t="n">
-        <v>18936120</v>
+        <v>18943002</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -43198,10 +43198,10 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="D893" t="n">
-        <v>3765455</v>
+        <v>3766955</v>
       </c>
       <c r="E893" t="inlineStr">
         <is>
@@ -43342,10 +43342,10 @@
         </is>
       </c>
       <c r="C896" t="n">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D896" t="n">
-        <v>518157</v>
+        <v>522657</v>
       </c>
       <c r="E896" t="inlineStr">
         <is>
@@ -43390,10 +43390,10 @@
         </is>
       </c>
       <c r="C897" t="n">
-        <v>10637</v>
+        <v>10648</v>
       </c>
       <c r="D897" t="n">
-        <v>13048895</v>
+        <v>13062267</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -43534,10 +43534,10 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>3516</v>
+        <v>3517</v>
       </c>
       <c r="D900" t="n">
-        <v>5142130</v>
+        <v>5143630</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -43582,10 +43582,10 @@
         </is>
       </c>
       <c r="C901" t="n">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="D901" t="n">
-        <v>2366092</v>
+        <v>2369092</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -43726,10 +43726,10 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>49741</v>
+        <v>49818</v>
       </c>
       <c r="D904" t="n">
-        <v>62219484</v>
+        <v>62302610</v>
       </c>
       <c r="E904" t="inlineStr">
         <is>
@@ -43966,10 +43966,10 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>22781</v>
+        <v>22802</v>
       </c>
       <c r="D909" t="n">
-        <v>33397544</v>
+        <v>33423957</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -44062,10 +44062,10 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>6781</v>
+        <v>6791</v>
       </c>
       <c r="D911" t="n">
-        <v>9770111</v>
+        <v>9785111</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -44206,10 +44206,10 @@
         </is>
       </c>
       <c r="C914" t="n">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="D914" t="n">
-        <v>1664450</v>
+        <v>1668818</v>
       </c>
       <c r="E914" t="inlineStr">
         <is>
@@ -44254,10 +44254,10 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>23105</v>
+        <v>23120</v>
       </c>
       <c r="D915" t="n">
-        <v>28669975</v>
+        <v>28685278</v>
       </c>
       <c r="E915" t="inlineStr">
         <is>
@@ -44446,10 +44446,10 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>10426</v>
+        <v>10435</v>
       </c>
       <c r="D919" t="n">
-        <v>15269609</v>
+        <v>15283109</v>
       </c>
       <c r="E919" t="inlineStr">
         <is>
@@ -44686,10 +44686,10 @@
         </is>
       </c>
       <c r="C924" t="n">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D924" t="n">
-        <v>1091091</v>
+        <v>1092017</v>
       </c>
       <c r="E924" t="inlineStr">
         <is>
@@ -44734,10 +44734,10 @@
         </is>
       </c>
       <c r="C925" t="n">
-        <v>7706</v>
+        <v>7707</v>
       </c>
       <c r="D925" t="n">
-        <v>9639813</v>
+        <v>9640324</v>
       </c>
       <c r="E925" t="inlineStr">
         <is>
@@ -44974,10 +44974,10 @@
         </is>
       </c>
       <c r="C930" t="n">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="D930" t="n">
-        <v>4762851</v>
+        <v>4764351</v>
       </c>
       <c r="E930" t="inlineStr">
         <is>
@@ -45022,10 +45022,10 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="D931" t="n">
-        <v>1040425</v>
+        <v>1046425</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -45118,10 +45118,10 @@
         </is>
       </c>
       <c r="C933" t="n">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D933" t="n">
-        <v>311888</v>
+        <v>314888</v>
       </c>
       <c r="E933" t="inlineStr">
         <is>
@@ -45166,10 +45166,10 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>14170</v>
+        <v>14182</v>
       </c>
       <c r="D934" t="n">
-        <v>17559175</v>
+        <v>17573506</v>
       </c>
       <c r="E934" t="inlineStr">
         <is>
@@ -45358,10 +45358,10 @@
         </is>
       </c>
       <c r="C938" t="n">
-        <v>5617</v>
+        <v>5619</v>
       </c>
       <c r="D938" t="n">
-        <v>8202776</v>
+        <v>8205776</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -45454,10 +45454,10 @@
         </is>
       </c>
       <c r="C940" t="n">
-        <v>1572</v>
+        <v>1577</v>
       </c>
       <c r="D940" t="n">
-        <v>2258981</v>
+        <v>2266481</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -45694,10 +45694,10 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>20866</v>
+        <v>20887</v>
       </c>
       <c r="D945" t="n">
-        <v>25919225</v>
+        <v>25938437</v>
       </c>
       <c r="E945" t="inlineStr">
         <is>
@@ -45934,10 +45934,10 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>10589</v>
+        <v>10592</v>
       </c>
       <c r="D950" t="n">
-        <v>15467965</v>
+        <v>15472465</v>
       </c>
       <c r="E950" t="inlineStr">
         <is>
@@ -46126,10 +46126,10 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="D954" t="n">
-        <v>774505</v>
+        <v>778096</v>
       </c>
       <c r="E954" t="inlineStr">
         <is>
@@ -46174,10 +46174,10 @@
         </is>
       </c>
       <c r="C955" t="n">
-        <v>9367</v>
+        <v>9374</v>
       </c>
       <c r="D955" t="n">
-        <v>11639886</v>
+        <v>11646531</v>
       </c>
       <c r="E955" t="inlineStr">
         <is>
@@ -46462,10 +46462,10 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>1629</v>
+        <v>1632</v>
       </c>
       <c r="D961" t="n">
-        <v>2343388</v>
+        <v>2347888</v>
       </c>
       <c r="E961" t="inlineStr">
         <is>
@@ -46510,10 +46510,10 @@
         </is>
       </c>
       <c r="C962" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D962" t="n">
-        <v>7489</v>
+        <v>8989</v>
       </c>
       <c r="E962" t="inlineStr">
         <is>
@@ -46654,10 +46654,10 @@
         </is>
       </c>
       <c r="C965" t="n">
-        <v>76695</v>
+        <v>76771</v>
       </c>
       <c r="D965" t="n">
-        <v>98516653</v>
+        <v>98605644</v>
       </c>
       <c r="E965" t="inlineStr">
         <is>
@@ -46990,10 +46990,10 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>28519</v>
+        <v>28546</v>
       </c>
       <c r="D972" t="n">
-        <v>41805814</v>
+        <v>41845048</v>
       </c>
       <c r="E972" t="inlineStr">
         <is>
@@ -47086,10 +47086,10 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>20627</v>
+        <v>20650</v>
       </c>
       <c r="D974" t="n">
-        <v>29915656</v>
+        <v>29947039</v>
       </c>
       <c r="E974" t="inlineStr">
         <is>
@@ -47230,10 +47230,10 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>1160</v>
+        <v>1163</v>
       </c>
       <c r="D977" t="n">
-        <v>1642257</v>
+        <v>1646757</v>
       </c>
       <c r="E977" t="inlineStr">
         <is>
@@ -47278,10 +47278,10 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>93870</v>
+        <v>93995</v>
       </c>
       <c r="D978" t="n">
-        <v>117579645</v>
+        <v>117740009</v>
       </c>
       <c r="E978" t="inlineStr">
         <is>
@@ -47614,10 +47614,10 @@
         </is>
       </c>
       <c r="C985" t="n">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="D985" t="n">
-        <v>471248</v>
+        <v>475758</v>
       </c>
       <c r="E985" t="inlineStr">
         <is>
@@ -47662,10 +47662,10 @@
         </is>
       </c>
       <c r="C986" t="n">
-        <v>37578</v>
+        <v>37668</v>
       </c>
       <c r="D986" t="n">
-        <v>55069531</v>
+        <v>55196424</v>
       </c>
       <c r="E986" t="inlineStr">
         <is>
@@ -47806,10 +47806,10 @@
         </is>
       </c>
       <c r="C989" t="n">
-        <v>28982</v>
+        <v>29066</v>
       </c>
       <c r="D989" t="n">
-        <v>42050030</v>
+        <v>42174321</v>
       </c>
       <c r="E989" t="inlineStr">
         <is>
@@ -47854,10 +47854,10 @@
         </is>
       </c>
       <c r="C990" t="n">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D990" t="n">
-        <v>929434</v>
+        <v>929689</v>
       </c>
       <c r="E990" t="inlineStr">
         <is>
@@ -47950,10 +47950,10 @@
         </is>
       </c>
       <c r="C992" t="n">
-        <v>2645</v>
+        <v>2657</v>
       </c>
       <c r="D992" t="n">
-        <v>3715693</v>
+        <v>3729835</v>
       </c>
       <c r="E992" t="inlineStr">
         <is>
@@ -47998,10 +47998,10 @@
         </is>
       </c>
       <c r="C993" t="n">
-        <v>11937</v>
+        <v>11948</v>
       </c>
       <c r="D993" t="n">
-        <v>15503401</v>
+        <v>15513958</v>
       </c>
       <c r="E993" t="inlineStr">
         <is>
@@ -48238,10 +48238,10 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>3803</v>
+        <v>3806</v>
       </c>
       <c r="D998" t="n">
-        <v>5550621</v>
+        <v>5555121</v>
       </c>
       <c r="E998" t="inlineStr">
         <is>
@@ -48286,10 +48286,10 @@
         </is>
       </c>
       <c r="C999" t="n">
-        <v>1255</v>
+        <v>1260</v>
       </c>
       <c r="D999" t="n">
-        <v>1811357</v>
+        <v>1818857</v>
       </c>
       <c r="E999" t="inlineStr">
         <is>
@@ -48526,10 +48526,10 @@
         </is>
       </c>
       <c r="C1004" t="n">
-        <v>60466</v>
+        <v>60517</v>
       </c>
       <c r="D1004" t="n">
-        <v>75470481</v>
+        <v>75529627</v>
       </c>
       <c r="E1004" t="inlineStr">
         <is>
@@ -48574,10 +48574,10 @@
         </is>
       </c>
       <c r="C1005" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1005" t="n">
-        <v>59118</v>
+        <v>59556</v>
       </c>
       <c r="E1005" t="inlineStr">
         <is>
@@ -48766,10 +48766,10 @@
         </is>
       </c>
       <c r="C1009" t="n">
-        <v>19575</v>
+        <v>19583</v>
       </c>
       <c r="D1009" t="n">
-        <v>28665710</v>
+        <v>28677106</v>
       </c>
       <c r="E1009" t="inlineStr">
         <is>
@@ -48862,10 +48862,10 @@
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>13820</v>
+        <v>13838</v>
       </c>
       <c r="D1011" t="n">
-        <v>19983999</v>
+        <v>20010705</v>
       </c>
       <c r="E1011" t="inlineStr">
         <is>
@@ -49006,10 +49006,10 @@
         </is>
       </c>
       <c r="C1014" t="n">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="D1014" t="n">
-        <v>1315296</v>
+        <v>1321296</v>
       </c>
       <c r="E1014" t="inlineStr">
         <is>
@@ -49054,10 +49054,10 @@
         </is>
       </c>
       <c r="C1015" t="n">
-        <v>30961</v>
+        <v>30982</v>
       </c>
       <c r="D1015" t="n">
-        <v>38448635</v>
+        <v>38469858</v>
       </c>
       <c r="E1015" t="inlineStr">
         <is>
@@ -49294,10 +49294,10 @@
         </is>
       </c>
       <c r="C1020" t="n">
-        <v>11454</v>
+        <v>11459</v>
       </c>
       <c r="D1020" t="n">
-        <v>16768873</v>
+        <v>16775428</v>
       </c>
       <c r="E1020" t="inlineStr">
         <is>
@@ -49390,10 +49390,10 @@
         </is>
       </c>
       <c r="C1022" t="n">
-        <v>6932</v>
+        <v>6937</v>
       </c>
       <c r="D1022" t="n">
-        <v>10041118</v>
+        <v>10048618</v>
       </c>
       <c r="E1022" t="inlineStr">
         <is>
@@ -49486,10 +49486,10 @@
         </is>
       </c>
       <c r="C1024" t="n">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D1024" t="n">
-        <v>1059149</v>
+        <v>1060121</v>
       </c>
       <c r="E1024" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-11-10/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1024"/>
+  <dimension ref="A1:J1025"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,10 +430,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17931</v>
+        <v>17955</v>
       </c>
       <c r="D2" t="n">
-        <v>22455118</v>
+        <v>22488173</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6648</v>
+        <v>6649</v>
       </c>
       <c r="D6" t="n">
-        <v>9731980</v>
+        <v>9733978</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3648</v>
+        <v>3652</v>
       </c>
       <c r="D8" t="n">
-        <v>5285372</v>
+        <v>5291372</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -766,10 +766,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D9" t="n">
-        <v>296528</v>
+        <v>298526</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -910,10 +910,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>12070</v>
+        <v>12073</v>
       </c>
       <c r="D12" t="n">
-        <v>15195206</v>
+        <v>15197525</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1390,10 +1390,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>15548</v>
+        <v>15553</v>
       </c>
       <c r="D22" t="n">
-        <v>18983614</v>
+        <v>18989835</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1822,10 +1822,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D31" t="n">
-        <v>629087</v>
+        <v>630391</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6998</v>
+        <v>7001</v>
       </c>
       <c r="D32" t="n">
-        <v>9263795</v>
+        <v>9266672</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1966,10 +1966,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D34" t="n">
-        <v>63476</v>
+        <v>64976</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2302,10 +2302,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>23888</v>
+        <v>23896</v>
       </c>
       <c r="D41" t="n">
-        <v>29278355</v>
+        <v>29286597</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -2686,10 +2686,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4178</v>
+        <v>4181</v>
       </c>
       <c r="D49" t="n">
-        <v>6044978</v>
+        <v>6049478</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D52" t="n">
-        <v>1113910</v>
+        <v>1115410</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2878,10 +2878,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8796</v>
+        <v>8802</v>
       </c>
       <c r="D53" t="n">
-        <v>11169360</v>
+        <v>11178360</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="D59" t="n">
-        <v>1566565</v>
+        <v>1571065</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -3310,10 +3310,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>40424</v>
+        <v>40449</v>
       </c>
       <c r="D62" t="n">
-        <v>51921535</v>
+        <v>51945646</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>14298</v>
+        <v>14306</v>
       </c>
       <c r="D67" t="n">
-        <v>20955069</v>
+        <v>20965969</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -3646,10 +3646,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5832</v>
+        <v>5834</v>
       </c>
       <c r="D69" t="n">
-        <v>8429246</v>
+        <v>8432246</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3886,10 +3886,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D74" t="n">
-        <v>611456</v>
+        <v>612956</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3982,10 +3982,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>50887</v>
+        <v>50935</v>
       </c>
       <c r="D76" t="n">
-        <v>64785307</v>
+        <v>64835324</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -4174,10 +4174,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>19646</v>
+        <v>19658</v>
       </c>
       <c r="D80" t="n">
-        <v>28745554</v>
+        <v>28763565</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -4270,10 +4270,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>10486</v>
+        <v>10497</v>
       </c>
       <c r="D82" t="n">
-        <v>15149061</v>
+        <v>15166224</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -4462,10 +4462,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="D86" t="n">
-        <v>1536931</v>
+        <v>1539931</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>26966</v>
+        <v>26981</v>
       </c>
       <c r="D87" t="n">
-        <v>33888864</v>
+        <v>33902748</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>9307</v>
+        <v>9311</v>
       </c>
       <c r="D91" t="n">
-        <v>13655564</v>
+        <v>13661250</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5408</v>
+        <v>5417</v>
       </c>
       <c r="D93" t="n">
-        <v>7808366</v>
+        <v>7820515</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -4894,10 +4894,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="D95" t="n">
-        <v>1357129</v>
+        <v>1360393</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>24007</v>
+        <v>24022</v>
       </c>
       <c r="D96" t="n">
-        <v>29980555</v>
+        <v>29995768</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -5134,10 +5134,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>9852</v>
+        <v>9853</v>
       </c>
       <c r="D100" t="n">
-        <v>14417178</v>
+        <v>14418678</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -5230,10 +5230,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3649</v>
+        <v>3651</v>
       </c>
       <c r="D102" t="n">
-        <v>5226301</v>
+        <v>5229301</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -5422,10 +5422,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="D106" t="n">
-        <v>823400</v>
+        <v>829000</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -5470,10 +5470,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>93175</v>
+        <v>93248</v>
       </c>
       <c r="D107" t="n">
-        <v>119031783</v>
+        <v>119106361</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -5806,10 +5806,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>33303</v>
+        <v>33328</v>
       </c>
       <c r="D114" t="n">
-        <v>48834058</v>
+        <v>48869528</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -5902,10 +5902,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>23840</v>
+        <v>23863</v>
       </c>
       <c r="D116" t="n">
-        <v>34401962</v>
+        <v>34434863</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -6238,10 +6238,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>2639</v>
+        <v>2653</v>
       </c>
       <c r="D123" t="n">
-        <v>3688374</v>
+        <v>3706397</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -6286,10 +6286,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>30879</v>
+        <v>30903</v>
       </c>
       <c r="D124" t="n">
-        <v>40648596</v>
+        <v>40675117</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -6430,10 +6430,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D127" t="n">
-        <v>157990</v>
+        <v>159490</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -6478,10 +6478,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>10961</v>
+        <v>10977</v>
       </c>
       <c r="D128" t="n">
-        <v>16073038</v>
+        <v>16096790</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -6574,10 +6574,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>3684</v>
+        <v>3687</v>
       </c>
       <c r="D130" t="n">
-        <v>5362604</v>
+        <v>5367248</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -6718,10 +6718,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D133" t="n">
-        <v>649747</v>
+        <v>651247</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -6766,10 +6766,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>17181</v>
+        <v>17187</v>
       </c>
       <c r="D134" t="n">
-        <v>21247089</v>
+        <v>21252347</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -6958,10 +6958,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>8326</v>
+        <v>8329</v>
       </c>
       <c r="D138" t="n">
-        <v>12174098</v>
+        <v>12178598</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>2486</v>
+        <v>2488</v>
       </c>
       <c r="D140" t="n">
-        <v>3551391</v>
+        <v>3554391</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -7246,10 +7246,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="D144" t="n">
-        <v>742336</v>
+        <v>746164</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -7294,10 +7294,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>14901</v>
+        <v>14915</v>
       </c>
       <c r="D145" t="n">
-        <v>18508062</v>
+        <v>18521465</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -7486,10 +7486,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>6640</v>
+        <v>6641</v>
       </c>
       <c r="D149" t="n">
-        <v>9723814</v>
+        <v>9725314</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -7582,10 +7582,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>2172</v>
+        <v>2174</v>
       </c>
       <c r="D151" t="n">
-        <v>3136836</v>
+        <v>3139836</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -7726,10 +7726,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D154" t="n">
-        <v>628769</v>
+        <v>630269</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -7774,10 +7774,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>6468</v>
+        <v>6476</v>
       </c>
       <c r="D155" t="n">
-        <v>7902015</v>
+        <v>7909967</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -7918,10 +7918,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>2147</v>
+        <v>2149</v>
       </c>
       <c r="D158" t="n">
-        <v>3148779</v>
+        <v>3151779</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -7966,10 +7966,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D159" t="n">
-        <v>1059008</v>
+        <v>1062008</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -8158,10 +8158,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>8101</v>
+        <v>8106</v>
       </c>
       <c r="D163" t="n">
-        <v>9974160</v>
+        <v>9980385</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -8302,10 +8302,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>3077</v>
+        <v>3080</v>
       </c>
       <c r="D166" t="n">
-        <v>4513740</v>
+        <v>4518240</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -8350,10 +8350,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="D167" t="n">
-        <v>2170230</v>
+        <v>2174161</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -8542,10 +8542,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>6132</v>
+        <v>6134</v>
       </c>
       <c r="D171" t="n">
-        <v>7648187</v>
+        <v>7649852</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>17470</v>
+        <v>17480</v>
       </c>
       <c r="D181" t="n">
-        <v>21845241</v>
+        <v>21859806</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -9262,10 +9262,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>6806</v>
+        <v>6807</v>
       </c>
       <c r="D186" t="n">
-        <v>9940519</v>
+        <v>9942019</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -9358,10 +9358,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>2459</v>
+        <v>2461</v>
       </c>
       <c r="D188" t="n">
-        <v>3537038</v>
+        <v>3540038</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -9502,10 +9502,10 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D191" t="n">
-        <v>804999</v>
+        <v>807999</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -9646,10 +9646,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="D194" t="n">
-        <v>2304342</v>
+        <v>2305842</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -9934,10 +9934,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>10104</v>
+        <v>10124</v>
       </c>
       <c r="D200" t="n">
-        <v>12581380</v>
+        <v>12602229</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -10126,10 +10126,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3682</v>
+        <v>3685</v>
       </c>
       <c r="D204" t="n">
-        <v>5403810</v>
+        <v>5408310</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -10222,10 +10222,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1792</v>
+        <v>1797</v>
       </c>
       <c r="D206" t="n">
-        <v>2575843</v>
+        <v>2582930</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -10366,10 +10366,10 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D209" t="n">
-        <v>387182</v>
+        <v>390182</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -10414,10 +10414,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>18571</v>
+        <v>18582</v>
       </c>
       <c r="D210" t="n">
-        <v>23059572</v>
+        <v>23073302</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -10606,10 +10606,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>8116</v>
+        <v>8122</v>
       </c>
       <c r="D214" t="n">
-        <v>11914408</v>
+        <v>11923408</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -10654,10 +10654,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="D215" t="n">
-        <v>1921762</v>
+        <v>1923262</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -10798,10 +10798,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>28097</v>
+        <v>28111</v>
       </c>
       <c r="D218" t="n">
-        <v>35203473</v>
+        <v>35218099</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -10990,10 +10990,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>11053</v>
+        <v>11056</v>
       </c>
       <c r="D222" t="n">
-        <v>16131994</v>
+        <v>16136494</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -11086,10 +11086,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>2873</v>
+        <v>2876</v>
       </c>
       <c r="D224" t="n">
-        <v>4134059</v>
+        <v>4138559</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -11230,10 +11230,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D227" t="n">
-        <v>1043178</v>
+        <v>1044678</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -11278,10 +11278,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>31479</v>
+        <v>31504</v>
       </c>
       <c r="D228" t="n">
-        <v>39489835</v>
+        <v>39517201</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -11518,10 +11518,10 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>15910</v>
+        <v>15917</v>
       </c>
       <c r="D233" t="n">
-        <v>23333772</v>
+        <v>23344450</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -11614,10 +11614,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>3004</v>
+        <v>3007</v>
       </c>
       <c r="D235" t="n">
-        <v>4309361</v>
+        <v>4313861</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="D238" t="n">
-        <v>1381628</v>
+        <v>1387574</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -11806,10 +11806,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>26444</v>
+        <v>26459</v>
       </c>
       <c r="D239" t="n">
-        <v>33210234</v>
+        <v>33224500</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -12094,10 +12094,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>11815</v>
+        <v>11821</v>
       </c>
       <c r="D245" t="n">
-        <v>17304542</v>
+        <v>17312792</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -12190,10 +12190,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>2758</v>
+        <v>2761</v>
       </c>
       <c r="D247" t="n">
-        <v>3932788</v>
+        <v>3937288</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -12382,10 +12382,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>8494</v>
+        <v>8506</v>
       </c>
       <c r="D251" t="n">
-        <v>10607602</v>
+        <v>10621212</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -12574,10 +12574,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="D255" t="n">
-        <v>4295380</v>
+        <v>4296880</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -12718,10 +12718,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D258" t="n">
-        <v>1600181</v>
+        <v>1601681</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -12862,10 +12862,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>10861</v>
+        <v>10864</v>
       </c>
       <c r="D261" t="n">
-        <v>13857556</v>
+        <v>13860579</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -13054,10 +13054,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>4535</v>
+        <v>4540</v>
       </c>
       <c r="D265" t="n">
-        <v>6652195</v>
+        <v>6658672</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -13150,10 +13150,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="D267" t="n">
-        <v>3514376</v>
+        <v>3515876</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -13294,10 +13294,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>6117</v>
+        <v>6120</v>
       </c>
       <c r="D270" t="n">
-        <v>7516200</v>
+        <v>7520000</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -13726,10 +13726,10 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>20960</v>
+        <v>20972</v>
       </c>
       <c r="D279" t="n">
-        <v>26356883</v>
+        <v>26370290</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -13918,10 +13918,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>8630</v>
+        <v>8635</v>
       </c>
       <c r="D283" t="n">
-        <v>12632872</v>
+        <v>12640372</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -14254,10 +14254,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>18100</v>
+        <v>18112</v>
       </c>
       <c r="D290" t="n">
-        <v>22362294</v>
+        <v>22377979</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -14494,10 +14494,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>7748</v>
+        <v>7755</v>
       </c>
       <c r="D295" t="n">
-        <v>11360210</v>
+        <v>11367869</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -14542,10 +14542,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>3688</v>
+        <v>3693</v>
       </c>
       <c r="D296" t="n">
-        <v>5336467</v>
+        <v>5343967</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -14686,10 +14686,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D299" t="n">
-        <v>599638</v>
+        <v>601138</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -14734,10 +14734,10 @@
         </is>
       </c>
       <c r="C300" t="n">
-        <v>10181</v>
+        <v>10187</v>
       </c>
       <c r="D300" t="n">
-        <v>12731893</v>
+        <v>12737760</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -14926,10 +14926,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>4144</v>
+        <v>4145</v>
       </c>
       <c r="D304" t="n">
-        <v>6062836</v>
+        <v>6064336</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -15214,10 +15214,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>10166</v>
+        <v>10174</v>
       </c>
       <c r="D310" t="n">
-        <v>13239484</v>
+        <v>13247646</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -15406,10 +15406,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>4093</v>
+        <v>4097</v>
       </c>
       <c r="D314" t="n">
-        <v>5982232</v>
+        <v>5987332</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -15502,10 +15502,10 @@
         </is>
       </c>
       <c r="C316" t="n">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D316" t="n">
-        <v>380252</v>
+        <v>383252</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
@@ -15598,10 +15598,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>12328</v>
+        <v>12339</v>
       </c>
       <c r="D318" t="n">
-        <v>16139024</v>
+        <v>16153774</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -15646,10 +15646,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D319" t="n">
-        <v>12447</v>
+        <v>13947</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -15790,10 +15790,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>4191</v>
+        <v>4196</v>
       </c>
       <c r="D322" t="n">
-        <v>6148292</v>
+        <v>6155792</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -15886,10 +15886,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>3018</v>
+        <v>3020</v>
       </c>
       <c r="D324" t="n">
-        <v>4379367</v>
+        <v>4382367</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -15934,10 +15934,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D325" t="n">
-        <v>404716</v>
+        <v>407341</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -15982,10 +15982,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D326" t="n">
-        <v>308321</v>
+        <v>309821</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -16030,10 +16030,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>7348</v>
+        <v>7349</v>
       </c>
       <c r="D327" t="n">
-        <v>9065131</v>
+        <v>9066631</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -16270,10 +16270,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="D332" t="n">
-        <v>3611287</v>
+        <v>3612787</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -16510,10 +16510,10 @@
         </is>
       </c>
       <c r="C337" t="n">
-        <v>8235</v>
+        <v>8239</v>
       </c>
       <c r="D337" t="n">
-        <v>10260182</v>
+        <v>10266182</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
@@ -16750,10 +16750,10 @@
         </is>
       </c>
       <c r="C342" t="n">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="D342" t="n">
-        <v>4947117</v>
+        <v>4948617</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -16798,10 +16798,10 @@
         </is>
       </c>
       <c r="C343" t="n">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D343" t="n">
-        <v>2040544</v>
+        <v>2042044</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -16990,10 +16990,10 @@
         </is>
       </c>
       <c r="C347" t="n">
-        <v>35778</v>
+        <v>35802</v>
       </c>
       <c r="D347" t="n">
-        <v>44792355</v>
+        <v>44816066</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -17278,10 +17278,10 @@
         </is>
       </c>
       <c r="C353" t="n">
-        <v>17835</v>
+        <v>17845</v>
       </c>
       <c r="D353" t="n">
-        <v>26061142</v>
+        <v>26076142</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -17422,10 +17422,10 @@
         </is>
       </c>
       <c r="C356" t="n">
-        <v>8844</v>
+        <v>8848</v>
       </c>
       <c r="D356" t="n">
-        <v>12736536</v>
+        <v>12742536</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
@@ -17470,10 +17470,10 @@
         </is>
       </c>
       <c r="C357" t="n">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D357" t="n">
-        <v>994463</v>
+        <v>995963</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -17566,10 +17566,10 @@
         </is>
       </c>
       <c r="C359" t="n">
-        <v>4279</v>
+        <v>4282</v>
       </c>
       <c r="D359" t="n">
-        <v>5294460</v>
+        <v>5296608</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
@@ -17950,10 +17950,10 @@
         </is>
       </c>
       <c r="C367" t="n">
-        <v>21161</v>
+        <v>21172</v>
       </c>
       <c r="D367" t="n">
-        <v>26273570</v>
+        <v>26281946</v>
       </c>
       <c r="E367" t="inlineStr">
         <is>
@@ -18142,10 +18142,10 @@
         </is>
       </c>
       <c r="C371" t="n">
-        <v>10608</v>
+        <v>10610</v>
       </c>
       <c r="D371" t="n">
-        <v>15549575</v>
+        <v>15552575</v>
       </c>
       <c r="E371" t="inlineStr">
         <is>
@@ -18238,10 +18238,10 @@
         </is>
       </c>
       <c r="C373" t="n">
-        <v>5190</v>
+        <v>5194</v>
       </c>
       <c r="D373" t="n">
-        <v>7516742</v>
+        <v>7522742</v>
       </c>
       <c r="E373" t="inlineStr">
         <is>
@@ -18286,10 +18286,10 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D374" t="n">
-        <v>921150</v>
+        <v>922650</v>
       </c>
       <c r="E374" t="inlineStr">
         <is>
@@ -18334,10 +18334,10 @@
         </is>
       </c>
       <c r="C375" t="n">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D375" t="n">
-        <v>627281</v>
+        <v>627581</v>
       </c>
       <c r="E375" t="inlineStr">
         <is>
@@ -18382,10 +18382,10 @@
         </is>
       </c>
       <c r="C376" t="n">
-        <v>15495</v>
+        <v>15509</v>
       </c>
       <c r="D376" t="n">
-        <v>19305303</v>
+        <v>19322885</v>
       </c>
       <c r="E376" t="inlineStr">
         <is>
@@ -18574,10 +18574,10 @@
         </is>
       </c>
       <c r="C380" t="n">
-        <v>6985</v>
+        <v>6987</v>
       </c>
       <c r="D380" t="n">
-        <v>10225595</v>
+        <v>10228595</v>
       </c>
       <c r="E380" t="inlineStr">
         <is>
@@ -18670,10 +18670,10 @@
         </is>
       </c>
       <c r="C382" t="n">
-        <v>2816</v>
+        <v>2821</v>
       </c>
       <c r="D382" t="n">
-        <v>4041632</v>
+        <v>4049132</v>
       </c>
       <c r="E382" t="inlineStr">
         <is>
@@ -18718,10 +18718,10 @@
         </is>
       </c>
       <c r="C383" t="n">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="D383" t="n">
-        <v>1216676</v>
+        <v>1222676</v>
       </c>
       <c r="E383" t="inlineStr">
         <is>
@@ -18814,10 +18814,10 @@
         </is>
       </c>
       <c r="C385" t="n">
-        <v>19700</v>
+        <v>19716</v>
       </c>
       <c r="D385" t="n">
-        <v>24414653</v>
+        <v>24433138</v>
       </c>
       <c r="E385" t="inlineStr">
         <is>
@@ -19102,10 +19102,10 @@
         </is>
       </c>
       <c r="C391" t="n">
-        <v>3066</v>
+        <v>3071</v>
       </c>
       <c r="D391" t="n">
-        <v>4464060</v>
+        <v>4471560</v>
       </c>
       <c r="E391" t="inlineStr">
         <is>
@@ -19294,10 +19294,10 @@
         </is>
       </c>
       <c r="C395" t="n">
-        <v>4448</v>
+        <v>4453</v>
       </c>
       <c r="D395" t="n">
-        <v>5543957</v>
+        <v>5548152</v>
       </c>
       <c r="E395" t="inlineStr">
         <is>
@@ -19630,10 +19630,10 @@
         </is>
       </c>
       <c r="C402" t="n">
-        <v>24209</v>
+        <v>24224</v>
       </c>
       <c r="D402" t="n">
-        <v>29843487</v>
+        <v>29860165</v>
       </c>
       <c r="E402" t="inlineStr">
         <is>
@@ -19774,10 +19774,10 @@
         </is>
       </c>
       <c r="C405" t="n">
-        <v>9950</v>
+        <v>9952</v>
       </c>
       <c r="D405" t="n">
-        <v>14635939</v>
+        <v>14638889</v>
       </c>
       <c r="E405" t="inlineStr">
         <is>
@@ -19870,10 +19870,10 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>6701</v>
+        <v>6702</v>
       </c>
       <c r="D407" t="n">
-        <v>9740851</v>
+        <v>9742169</v>
       </c>
       <c r="E407" t="inlineStr">
         <is>
@@ -20014,10 +20014,10 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>12149</v>
+        <v>12162</v>
       </c>
       <c r="D410" t="n">
-        <v>14881741</v>
+        <v>14894102</v>
       </c>
       <c r="E410" t="inlineStr">
         <is>
@@ -20254,10 +20254,10 @@
         </is>
       </c>
       <c r="C415" t="n">
-        <v>5657</v>
+        <v>5658</v>
       </c>
       <c r="D415" t="n">
-        <v>8260371</v>
+        <v>8260999</v>
       </c>
       <c r="E415" t="inlineStr">
         <is>
@@ -20350,10 +20350,10 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="D417" t="n">
-        <v>2895689</v>
+        <v>2897189</v>
       </c>
       <c r="E417" t="inlineStr">
         <is>
@@ -20446,10 +20446,10 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D419" t="n">
-        <v>346560</v>
+        <v>348060</v>
       </c>
       <c r="E419" t="inlineStr">
         <is>
@@ -20494,10 +20494,10 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>37839</v>
+        <v>37861</v>
       </c>
       <c r="D420" t="n">
-        <v>51324684</v>
+        <v>51354821</v>
       </c>
       <c r="E420" t="inlineStr">
         <is>
@@ -20686,10 +20686,10 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>9383</v>
+        <v>9396</v>
       </c>
       <c r="D424" t="n">
-        <v>13784762</v>
+        <v>13804262</v>
       </c>
       <c r="E424" t="inlineStr">
         <is>
@@ -20782,10 +20782,10 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>8725</v>
+        <v>8734</v>
       </c>
       <c r="D426" t="n">
-        <v>12659926</v>
+        <v>12673426</v>
       </c>
       <c r="E426" t="inlineStr">
         <is>
@@ -20878,10 +20878,10 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D428" t="n">
-        <v>845430</v>
+        <v>846930</v>
       </c>
       <c r="E428" t="inlineStr">
         <is>
@@ -20974,10 +20974,10 @@
         </is>
       </c>
       <c r="C430" t="n">
-        <v>16517</v>
+        <v>16556</v>
       </c>
       <c r="D430" t="n">
-        <v>30882945</v>
+        <v>30986147</v>
       </c>
       <c r="E430" t="inlineStr">
         <is>
@@ -21118,10 +21118,10 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>3831</v>
+        <v>3839</v>
       </c>
       <c r="D433" t="n">
-        <v>7680181</v>
+        <v>7702389</v>
       </c>
       <c r="E433" t="inlineStr">
         <is>
@@ -21214,10 +21214,10 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>5437</v>
+        <v>5451</v>
       </c>
       <c r="D435" t="n">
-        <v>11023520</v>
+        <v>11055384</v>
       </c>
       <c r="E435" t="inlineStr">
         <is>
@@ -21310,10 +21310,10 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D437" t="n">
-        <v>507340</v>
+        <v>510930</v>
       </c>
       <c r="E437" t="inlineStr">
         <is>
@@ -21454,10 +21454,10 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>12073</v>
+        <v>12078</v>
       </c>
       <c r="D440" t="n">
-        <v>14918717</v>
+        <v>14925585</v>
       </c>
       <c r="E440" t="inlineStr">
         <is>
@@ -21598,10 +21598,10 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>4123</v>
+        <v>4124</v>
       </c>
       <c r="D443" t="n">
-        <v>6046107</v>
+        <v>6047607</v>
       </c>
       <c r="E443" t="inlineStr">
         <is>
@@ -21694,10 +21694,10 @@
         </is>
       </c>
       <c r="C445" t="n">
-        <v>2089</v>
+        <v>2091</v>
       </c>
       <c r="D445" t="n">
-        <v>2986969</v>
+        <v>2989969</v>
       </c>
       <c r="E445" t="inlineStr">
         <is>
@@ -21838,10 +21838,10 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>69938</v>
+        <v>69986</v>
       </c>
       <c r="D448" t="n">
-        <v>86471835</v>
+        <v>86529032</v>
       </c>
       <c r="E448" t="inlineStr">
         <is>
@@ -22030,10 +22030,10 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>27202</v>
+        <v>27217</v>
       </c>
       <c r="D452" t="n">
-        <v>39820781</v>
+        <v>39843113</v>
       </c>
       <c r="E452" t="inlineStr">
         <is>
@@ -22126,10 +22126,10 @@
         </is>
       </c>
       <c r="C454" t="n">
-        <v>14926</v>
+        <v>14947</v>
       </c>
       <c r="D454" t="n">
-        <v>21656040</v>
+        <v>21686313</v>
       </c>
       <c r="E454" t="inlineStr">
         <is>
@@ -22318,10 +22318,10 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>1379</v>
+        <v>1384</v>
       </c>
       <c r="D458" t="n">
-        <v>1948640</v>
+        <v>1956140</v>
       </c>
       <c r="E458" t="inlineStr">
         <is>
@@ -22414,10 +22414,10 @@
         </is>
       </c>
       <c r="C460" t="n">
-        <v>21193</v>
+        <v>21206</v>
       </c>
       <c r="D460" t="n">
-        <v>26827407</v>
+        <v>26841669</v>
       </c>
       <c r="E460" t="inlineStr">
         <is>
@@ -22606,10 +22606,10 @@
         </is>
       </c>
       <c r="C464" t="n">
-        <v>8328</v>
+        <v>8331</v>
       </c>
       <c r="D464" t="n">
-        <v>12209916</v>
+        <v>12214406</v>
       </c>
       <c r="E464" t="inlineStr">
         <is>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>5757</v>
+        <v>5762</v>
       </c>
       <c r="D466" t="n">
-        <v>8356920</v>
+        <v>8364420</v>
       </c>
       <c r="E466" t="inlineStr">
         <is>
@@ -22798,10 +22798,10 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D468" t="n">
-        <v>514010</v>
+        <v>517010</v>
       </c>
       <c r="E468" t="inlineStr">
         <is>
@@ -22846,10 +22846,10 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>34952</v>
+        <v>34978</v>
       </c>
       <c r="D469" t="n">
-        <v>42564306</v>
+        <v>42594519</v>
       </c>
       <c r="E469" t="inlineStr">
         <is>
@@ -23038,10 +23038,10 @@
         </is>
       </c>
       <c r="C473" t="n">
-        <v>12200</v>
+        <v>12206</v>
       </c>
       <c r="D473" t="n">
-        <v>17834048</v>
+        <v>17843048</v>
       </c>
       <c r="E473" t="inlineStr">
         <is>
@@ -23134,10 +23134,10 @@
         </is>
       </c>
       <c r="C475" t="n">
-        <v>5330</v>
+        <v>5331</v>
       </c>
       <c r="D475" t="n">
-        <v>7726145</v>
+        <v>7727645</v>
       </c>
       <c r="E475" t="inlineStr">
         <is>
@@ -23278,10 +23278,10 @@
         </is>
       </c>
       <c r="C478" t="n">
-        <v>15634</v>
+        <v>15637</v>
       </c>
       <c r="D478" t="n">
-        <v>19024145</v>
+        <v>19027192</v>
       </c>
       <c r="E478" t="inlineStr">
         <is>
@@ -23518,10 +23518,10 @@
         </is>
       </c>
       <c r="C483" t="n">
-        <v>4705</v>
+        <v>4706</v>
       </c>
       <c r="D483" t="n">
-        <v>6909543</v>
+        <v>6911043</v>
       </c>
       <c r="E483" t="inlineStr">
         <is>
@@ -23566,10 +23566,10 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D484" t="n">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="E484" t="inlineStr">
         <is>
@@ -23614,10 +23614,10 @@
         </is>
       </c>
       <c r="C485" t="n">
-        <v>2310</v>
+        <v>2312</v>
       </c>
       <c r="D485" t="n">
-        <v>3327293</v>
+        <v>3330279</v>
       </c>
       <c r="E485" t="inlineStr">
         <is>
@@ -23710,10 +23710,10 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D487" t="n">
-        <v>562950</v>
+        <v>567850</v>
       </c>
       <c r="E487" t="inlineStr">
         <is>
@@ -23758,10 +23758,10 @@
         </is>
       </c>
       <c r="C488" t="n">
-        <v>43178</v>
+        <v>43224</v>
       </c>
       <c r="D488" t="n">
-        <v>56465289</v>
+        <v>56516911</v>
       </c>
       <c r="E488" t="inlineStr">
         <is>
@@ -23950,10 +23950,10 @@
         </is>
       </c>
       <c r="C492" t="n">
-        <v>15049</v>
+        <v>15054</v>
       </c>
       <c r="D492" t="n">
-        <v>22116474</v>
+        <v>22122237</v>
       </c>
       <c r="E492" t="inlineStr">
         <is>
@@ -24046,10 +24046,10 @@
         </is>
       </c>
       <c r="C494" t="n">
-        <v>14605</v>
+        <v>14615</v>
       </c>
       <c r="D494" t="n">
-        <v>21321081</v>
+        <v>21334932</v>
       </c>
       <c r="E494" t="inlineStr">
         <is>
@@ -24190,10 +24190,10 @@
         </is>
       </c>
       <c r="C497" t="n">
-        <v>78607</v>
+        <v>78685</v>
       </c>
       <c r="D497" t="n">
-        <v>104096529</v>
+        <v>104188654</v>
       </c>
       <c r="E497" t="inlineStr">
         <is>
@@ -24430,10 +24430,10 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>27140</v>
+        <v>27169</v>
       </c>
       <c r="D502" t="n">
-        <v>39800419</v>
+        <v>39845065</v>
       </c>
       <c r="E502" t="inlineStr">
         <is>
@@ -24478,10 +24478,10 @@
         </is>
       </c>
       <c r="C503" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D503" t="n">
-        <v>64887</v>
+        <v>66387</v>
       </c>
       <c r="E503" t="inlineStr">
         <is>
@@ -24526,10 +24526,10 @@
         </is>
       </c>
       <c r="C504" t="n">
-        <v>28501</v>
+        <v>28537</v>
       </c>
       <c r="D504" t="n">
-        <v>41407398</v>
+        <v>41458885</v>
       </c>
       <c r="E504" t="inlineStr">
         <is>
@@ -24718,10 +24718,10 @@
         </is>
       </c>
       <c r="C508" t="n">
-        <v>188195</v>
+        <v>188459</v>
       </c>
       <c r="D508" t="n">
-        <v>246314825</v>
+        <v>246657597</v>
       </c>
       <c r="E508" t="inlineStr">
         <is>
@@ -24958,10 +24958,10 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="D513" t="n">
-        <v>844649</v>
+        <v>849149</v>
       </c>
       <c r="E513" t="inlineStr">
         <is>
@@ -25054,10 +25054,10 @@
         </is>
       </c>
       <c r="C515" t="n">
-        <v>97117</v>
+        <v>97247</v>
       </c>
       <c r="D515" t="n">
-        <v>142600856</v>
+        <v>142791123</v>
       </c>
       <c r="E515" t="inlineStr">
         <is>
@@ -25198,10 +25198,10 @@
         </is>
       </c>
       <c r="C518" t="n">
-        <v>74301</v>
+        <v>74451</v>
       </c>
       <c r="D518" t="n">
-        <v>107970139</v>
+        <v>108190181</v>
       </c>
       <c r="E518" t="inlineStr">
         <is>
@@ -25294,10 +25294,10 @@
         </is>
       </c>
       <c r="C520" t="n">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="D520" t="n">
-        <v>1686009</v>
+        <v>1689009</v>
       </c>
       <c r="E520" t="inlineStr">
         <is>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="C522" t="n">
-        <v>3934</v>
+        <v>3942</v>
       </c>
       <c r="D522" t="n">
-        <v>5547158</v>
+        <v>5557675</v>
       </c>
       <c r="E522" t="inlineStr">
         <is>
@@ -25534,10 +25534,10 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>49313</v>
+        <v>49356</v>
       </c>
       <c r="D525" t="n">
-        <v>64334161</v>
+        <v>64386176</v>
       </c>
       <c r="E525" t="inlineStr">
         <is>
@@ -25774,10 +25774,10 @@
         </is>
       </c>
       <c r="C530" t="n">
-        <v>16909</v>
+        <v>16921</v>
       </c>
       <c r="D530" t="n">
-        <v>24827510</v>
+        <v>24845510</v>
       </c>
       <c r="E530" t="inlineStr">
         <is>
@@ -25870,10 +25870,10 @@
         </is>
       </c>
       <c r="C532" t="n">
-        <v>15494</v>
+        <v>15507</v>
       </c>
       <c r="D532" t="n">
-        <v>22451548</v>
+        <v>22470250</v>
       </c>
       <c r="E532" t="inlineStr">
         <is>
@@ -26014,10 +26014,10 @@
         </is>
       </c>
       <c r="C535" t="n">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D535" t="n">
-        <v>640485</v>
+        <v>641297</v>
       </c>
       <c r="E535" t="inlineStr">
         <is>
@@ -26110,10 +26110,10 @@
         </is>
       </c>
       <c r="C537" t="n">
-        <v>86393</v>
+        <v>86540</v>
       </c>
       <c r="D537" t="n">
-        <v>116801557</v>
+        <v>116992491</v>
       </c>
       <c r="E537" t="inlineStr">
         <is>
@@ -26302,10 +26302,10 @@
         </is>
       </c>
       <c r="C541" t="n">
-        <v>26701</v>
+        <v>26735</v>
       </c>
       <c r="D541" t="n">
-        <v>39359219</v>
+        <v>39408949</v>
       </c>
       <c r="E541" t="inlineStr">
         <is>
@@ -26398,10 +26398,10 @@
         </is>
       </c>
       <c r="C543" t="n">
-        <v>31355</v>
+        <v>31412</v>
       </c>
       <c r="D543" t="n">
-        <v>45864678</v>
+        <v>45948046</v>
       </c>
       <c r="E543" t="inlineStr">
         <is>
@@ -26590,10 +26590,10 @@
         </is>
       </c>
       <c r="C547" t="n">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D547" t="n">
-        <v>1627137</v>
+        <v>1628637</v>
       </c>
       <c r="E547" t="inlineStr">
         <is>
@@ -26638,10 +26638,10 @@
         </is>
       </c>
       <c r="C548" t="n">
-        <v>68178</v>
+        <v>68255</v>
       </c>
       <c r="D548" t="n">
-        <v>90449502</v>
+        <v>90538738</v>
       </c>
       <c r="E548" t="inlineStr">
         <is>
@@ -26878,10 +26878,10 @@
         </is>
       </c>
       <c r="C553" t="n">
-        <v>20235</v>
+        <v>20251</v>
       </c>
       <c r="D553" t="n">
-        <v>29718707</v>
+        <v>29739935</v>
       </c>
       <c r="E553" t="inlineStr">
         <is>
@@ -26974,10 +26974,10 @@
         </is>
       </c>
       <c r="C555" t="n">
-        <v>23064</v>
+        <v>23101</v>
       </c>
       <c r="D555" t="n">
-        <v>33526413</v>
+        <v>33581398</v>
       </c>
       <c r="E555" t="inlineStr">
         <is>
@@ -27070,10 +27070,10 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="D557" t="n">
-        <v>1193850</v>
+        <v>1194646</v>
       </c>
       <c r="E557" t="inlineStr">
         <is>
@@ -27118,10 +27118,10 @@
         </is>
       </c>
       <c r="C558" t="n">
-        <v>51977</v>
+        <v>52023</v>
       </c>
       <c r="D558" t="n">
-        <v>69474315</v>
+        <v>69531298</v>
       </c>
       <c r="E558" t="inlineStr">
         <is>
@@ -27310,10 +27310,10 @@
         </is>
       </c>
       <c r="C562" t="n">
-        <v>15814</v>
+        <v>15822</v>
       </c>
       <c r="D562" t="n">
-        <v>23291891</v>
+        <v>23303891</v>
       </c>
       <c r="E562" t="inlineStr">
         <is>
@@ -27406,10 +27406,10 @@
         </is>
       </c>
       <c r="C564" t="n">
-        <v>18110</v>
+        <v>18129</v>
       </c>
       <c r="D564" t="n">
-        <v>26292617</v>
+        <v>26321117</v>
       </c>
       <c r="E564" t="inlineStr">
         <is>
@@ -27502,10 +27502,10 @@
         </is>
       </c>
       <c r="C566" t="n">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D566" t="n">
-        <v>546098</v>
+        <v>547598</v>
       </c>
       <c r="E566" t="inlineStr">
         <is>
@@ -27550,10 +27550,10 @@
         </is>
       </c>
       <c r="C567" t="n">
-        <v>48823</v>
+        <v>48857</v>
       </c>
       <c r="D567" t="n">
-        <v>63424986</v>
+        <v>63461942</v>
       </c>
       <c r="E567" t="inlineStr">
         <is>
@@ -27742,10 +27742,10 @@
         </is>
       </c>
       <c r="C571" t="n">
-        <v>17844</v>
+        <v>17857</v>
       </c>
       <c r="D571" t="n">
-        <v>26162144</v>
+        <v>26181809</v>
       </c>
       <c r="E571" t="inlineStr">
         <is>
@@ -27838,10 +27838,10 @@
         </is>
       </c>
       <c r="C573" t="n">
-        <v>15467</v>
+        <v>15478</v>
       </c>
       <c r="D573" t="n">
-        <v>22374553</v>
+        <v>22390885</v>
       </c>
       <c r="E573" t="inlineStr">
         <is>
@@ -28030,10 +28030,10 @@
         </is>
       </c>
       <c r="C577" t="n">
-        <v>49534</v>
+        <v>49566</v>
       </c>
       <c r="D577" t="n">
-        <v>66040199</v>
+        <v>66084078</v>
       </c>
       <c r="E577" t="inlineStr">
         <is>
@@ -28318,10 +28318,10 @@
         </is>
       </c>
       <c r="C583" t="n">
-        <v>15278</v>
+        <v>15283</v>
       </c>
       <c r="D583" t="n">
-        <v>22390110</v>
+        <v>22398082</v>
       </c>
       <c r="E583" t="inlineStr">
         <is>
@@ -28366,10 +28366,10 @@
         </is>
       </c>
       <c r="C584" t="n">
-        <v>4149</v>
+        <v>4151</v>
       </c>
       <c r="D584" t="n">
-        <v>5987826</v>
+        <v>5990826</v>
       </c>
       <c r="E584" t="inlineStr">
         <is>
@@ -28654,10 +28654,10 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>19793</v>
+        <v>19818</v>
       </c>
       <c r="D590" t="n">
-        <v>26168853</v>
+        <v>26199666</v>
       </c>
       <c r="E590" t="inlineStr">
         <is>
@@ -28846,10 +28846,10 @@
         </is>
       </c>
       <c r="C594" t="n">
-        <v>8193</v>
+        <v>8204</v>
       </c>
       <c r="D594" t="n">
-        <v>11919200</v>
+        <v>11935032</v>
       </c>
       <c r="E594" t="inlineStr">
         <is>
@@ -28942,10 +28942,10 @@
         </is>
       </c>
       <c r="C596" t="n">
-        <v>5815</v>
+        <v>5824</v>
       </c>
       <c r="D596" t="n">
-        <v>8369992</v>
+        <v>8383492</v>
       </c>
       <c r="E596" t="inlineStr">
         <is>
@@ -29182,10 +29182,10 @@
         </is>
       </c>
       <c r="C601" t="n">
-        <v>28736</v>
+        <v>28771</v>
       </c>
       <c r="D601" t="n">
-        <v>57862448</v>
+        <v>57959648</v>
       </c>
       <c r="E601" t="inlineStr">
         <is>
@@ -29470,10 +29470,10 @@
         </is>
       </c>
       <c r="C607" t="n">
-        <v>23994</v>
+        <v>24004</v>
       </c>
       <c r="D607" t="n">
-        <v>29951506</v>
+        <v>29962261</v>
       </c>
       <c r="E607" t="inlineStr">
         <is>
@@ -29710,10 +29710,10 @@
         </is>
       </c>
       <c r="C612" t="n">
-        <v>9694</v>
+        <v>9698</v>
       </c>
       <c r="D612" t="n">
-        <v>14184143</v>
+        <v>14190061</v>
       </c>
       <c r="E612" t="inlineStr">
         <is>
@@ -29806,10 +29806,10 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>3694</v>
+        <v>3696</v>
       </c>
       <c r="D614" t="n">
-        <v>5307623</v>
+        <v>5310623</v>
       </c>
       <c r="E614" t="inlineStr">
         <is>
@@ -29902,10 +29902,10 @@
         </is>
       </c>
       <c r="C616" t="n">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D616" t="n">
-        <v>847125</v>
+        <v>848625</v>
       </c>
       <c r="E616" t="inlineStr">
         <is>
@@ -29998,10 +29998,10 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>16118</v>
+        <v>16126</v>
       </c>
       <c r="D618" t="n">
-        <v>20122240</v>
+        <v>20131814</v>
       </c>
       <c r="E618" t="inlineStr">
         <is>
@@ -30190,10 +30190,10 @@
         </is>
       </c>
       <c r="C622" t="n">
-        <v>6256</v>
+        <v>6261</v>
       </c>
       <c r="D622" t="n">
-        <v>9181581</v>
+        <v>9189381</v>
       </c>
       <c r="E622" t="inlineStr">
         <is>
@@ -30286,10 +30286,10 @@
         </is>
       </c>
       <c r="C624" t="n">
-        <v>3021</v>
+        <v>3023</v>
       </c>
       <c r="D624" t="n">
-        <v>4354112</v>
+        <v>4356112</v>
       </c>
       <c r="E624" t="inlineStr">
         <is>
@@ -30430,10 +30430,10 @@
         </is>
       </c>
       <c r="C627" t="n">
-        <v>14934</v>
+        <v>14942</v>
       </c>
       <c r="D627" t="n">
-        <v>18752497</v>
+        <v>18762419</v>
       </c>
       <c r="E627" t="inlineStr">
         <is>
@@ -30622,10 +30622,10 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>5566</v>
+        <v>5567</v>
       </c>
       <c r="D631" t="n">
-        <v>8155896</v>
+        <v>8157396</v>
       </c>
       <c r="E631" t="inlineStr">
         <is>
@@ -30814,10 +30814,10 @@
         </is>
       </c>
       <c r="C635" t="n">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D635" t="n">
-        <v>461607</v>
+        <v>465800</v>
       </c>
       <c r="E635" t="inlineStr">
         <is>
@@ -30862,10 +30862,10 @@
         </is>
       </c>
       <c r="C636" t="n">
-        <v>8167</v>
+        <v>8171</v>
       </c>
       <c r="D636" t="n">
-        <v>10454815</v>
+        <v>10460760</v>
       </c>
       <c r="E636" t="inlineStr">
         <is>
@@ -31294,10 +31294,10 @@
         </is>
       </c>
       <c r="C645" t="n">
-        <v>31394</v>
+        <v>31402</v>
       </c>
       <c r="D645" t="n">
-        <v>38503569</v>
+        <v>38513171</v>
       </c>
       <c r="E645" t="inlineStr">
         <is>
@@ -31534,10 +31534,10 @@
         </is>
       </c>
       <c r="C650" t="n">
-        <v>11916</v>
+        <v>11924</v>
       </c>
       <c r="D650" t="n">
-        <v>17476959</v>
+        <v>17488959</v>
       </c>
       <c r="E650" t="inlineStr">
         <is>
@@ -31630,10 +31630,10 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>5459</v>
+        <v>5465</v>
       </c>
       <c r="D652" t="n">
-        <v>7917767</v>
+        <v>7926767</v>
       </c>
       <c r="E652" t="inlineStr">
         <is>
@@ -31774,10 +31774,10 @@
         </is>
       </c>
       <c r="C655" t="n">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="D655" t="n">
-        <v>983027</v>
+        <v>989027</v>
       </c>
       <c r="E655" t="inlineStr">
         <is>
@@ -31822,10 +31822,10 @@
         </is>
       </c>
       <c r="C656" t="n">
-        <v>12344</v>
+        <v>12350</v>
       </c>
       <c r="D656" t="n">
-        <v>14843512</v>
+        <v>14850698</v>
       </c>
       <c r="E656" t="inlineStr">
         <is>
@@ -32302,10 +32302,10 @@
         </is>
       </c>
       <c r="C666" t="n">
-        <v>30411</v>
+        <v>30416</v>
       </c>
       <c r="D666" t="n">
-        <v>37670715</v>
+        <v>37676758</v>
       </c>
       <c r="E666" t="inlineStr">
         <is>
@@ -32494,10 +32494,10 @@
         </is>
       </c>
       <c r="C670" t="n">
-        <v>11320</v>
+        <v>11321</v>
       </c>
       <c r="D670" t="n">
-        <v>16624907</v>
+        <v>16626407</v>
       </c>
       <c r="E670" t="inlineStr">
         <is>
@@ -32686,10 +32686,10 @@
         </is>
       </c>
       <c r="C674" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D674" t="n">
-        <v>761942</v>
+        <v>764942</v>
       </c>
       <c r="E674" t="inlineStr">
         <is>
@@ -32734,10 +32734,10 @@
         </is>
       </c>
       <c r="C675" t="n">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D675" t="n">
-        <v>825769</v>
+        <v>827751</v>
       </c>
       <c r="E675" t="inlineStr">
         <is>
@@ -32782,10 +32782,10 @@
         </is>
       </c>
       <c r="C676" t="n">
-        <v>8164</v>
+        <v>8172</v>
       </c>
       <c r="D676" t="n">
-        <v>10307342</v>
+        <v>10316498</v>
       </c>
       <c r="E676" t="inlineStr">
         <is>
@@ -32974,10 +32974,10 @@
         </is>
       </c>
       <c r="C680" t="n">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="D680" t="n">
-        <v>2027695</v>
+        <v>2032195</v>
       </c>
       <c r="E680" t="inlineStr">
         <is>
@@ -33166,10 +33166,10 @@
         </is>
       </c>
       <c r="C684" t="n">
-        <v>4167</v>
+        <v>4168</v>
       </c>
       <c r="D684" t="n">
-        <v>5006263</v>
+        <v>5007753</v>
       </c>
       <c r="E684" t="inlineStr">
         <is>
@@ -33454,10 +33454,10 @@
         </is>
       </c>
       <c r="C690" t="n">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="D690" t="n">
-        <v>696577</v>
+        <v>699577</v>
       </c>
       <c r="E690" t="inlineStr">
         <is>
@@ -33598,10 +33598,10 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>10151</v>
+        <v>10154</v>
       </c>
       <c r="D693" t="n">
-        <v>12567302</v>
+        <v>12569939</v>
       </c>
       <c r="E693" t="inlineStr">
         <is>
@@ -33790,10 +33790,10 @@
         </is>
       </c>
       <c r="C697" t="n">
-        <v>3688</v>
+        <v>3690</v>
       </c>
       <c r="D697" t="n">
-        <v>5436890</v>
+        <v>5439464</v>
       </c>
       <c r="E697" t="inlineStr">
         <is>
@@ -33838,10 +33838,10 @@
         </is>
       </c>
       <c r="C698" t="n">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="D698" t="n">
-        <v>1196597</v>
+        <v>1201097</v>
       </c>
       <c r="E698" t="inlineStr">
         <is>
@@ -34030,10 +34030,10 @@
         </is>
       </c>
       <c r="C702" t="n">
-        <v>20895</v>
+        <v>20909</v>
       </c>
       <c r="D702" t="n">
-        <v>25511319</v>
+        <v>25527053</v>
       </c>
       <c r="E702" t="inlineStr">
         <is>
@@ -34222,10 +34222,10 @@
         </is>
       </c>
       <c r="C706" t="n">
-        <v>6110</v>
+        <v>6112</v>
       </c>
       <c r="D706" t="n">
-        <v>8917834</v>
+        <v>8920834</v>
       </c>
       <c r="E706" t="inlineStr">
         <is>
@@ -34318,10 +34318,10 @@
         </is>
       </c>
       <c r="C708" t="n">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="D708" t="n">
-        <v>3539928</v>
+        <v>3541428</v>
       </c>
       <c r="E708" t="inlineStr">
         <is>
@@ -34414,10 +34414,10 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D710" t="n">
-        <v>543565</v>
+        <v>545065</v>
       </c>
       <c r="E710" t="inlineStr">
         <is>
@@ -34510,10 +34510,10 @@
         </is>
       </c>
       <c r="C712" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D712" t="n">
-        <v>500677</v>
+        <v>502177</v>
       </c>
       <c r="E712" t="inlineStr">
         <is>
@@ -34558,10 +34558,10 @@
         </is>
       </c>
       <c r="C713" t="n">
-        <v>82986</v>
+        <v>83064</v>
       </c>
       <c r="D713" t="n">
-        <v>104160335</v>
+        <v>104243447</v>
       </c>
       <c r="E713" t="inlineStr">
         <is>
@@ -34798,10 +34798,10 @@
         </is>
       </c>
       <c r="C718" t="n">
-        <v>29028</v>
+        <v>29042</v>
       </c>
       <c r="D718" t="n">
-        <v>42581230</v>
+        <v>42601836</v>
       </c>
       <c r="E718" t="inlineStr">
         <is>
@@ -34942,10 +34942,10 @@
         </is>
       </c>
       <c r="C721" t="n">
-        <v>14947</v>
+        <v>14958</v>
       </c>
       <c r="D721" t="n">
-        <v>21561991</v>
+        <v>21576242</v>
       </c>
       <c r="E721" t="inlineStr">
         <is>
@@ -35086,10 +35086,10 @@
         </is>
       </c>
       <c r="C724" t="n">
-        <v>2151</v>
+        <v>2153</v>
       </c>
       <c r="D724" t="n">
-        <v>3101809</v>
+        <v>3104809</v>
       </c>
       <c r="E724" t="inlineStr">
         <is>
@@ -35182,10 +35182,10 @@
         </is>
       </c>
       <c r="C726" t="n">
-        <v>1587</v>
+        <v>1594</v>
       </c>
       <c r="D726" t="n">
-        <v>2214080</v>
+        <v>2224910</v>
       </c>
       <c r="E726" t="inlineStr">
         <is>
@@ -35230,10 +35230,10 @@
         </is>
       </c>
       <c r="C727" t="n">
-        <v>12103</v>
+        <v>12111</v>
       </c>
       <c r="D727" t="n">
-        <v>14726862</v>
+        <v>14735141</v>
       </c>
       <c r="E727" t="inlineStr">
         <is>
@@ -35374,10 +35374,10 @@
         </is>
       </c>
       <c r="C730" t="n">
-        <v>4367</v>
+        <v>4369</v>
       </c>
       <c r="D730" t="n">
-        <v>6391360</v>
+        <v>6393780</v>
       </c>
       <c r="E730" t="inlineStr">
         <is>
@@ -35470,10 +35470,10 @@
         </is>
       </c>
       <c r="C732" t="n">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="D732" t="n">
-        <v>2346289</v>
+        <v>2347789</v>
       </c>
       <c r="E732" t="inlineStr">
         <is>
@@ -35566,10 +35566,10 @@
         </is>
       </c>
       <c r="C734" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D734" t="n">
-        <v>445557</v>
+        <v>447057</v>
       </c>
       <c r="E734" t="inlineStr">
         <is>
@@ -35614,10 +35614,10 @@
         </is>
       </c>
       <c r="C735" t="n">
-        <v>19051</v>
+        <v>19062</v>
       </c>
       <c r="D735" t="n">
-        <v>23399348</v>
+        <v>23410079</v>
       </c>
       <c r="E735" t="inlineStr">
         <is>
@@ -35806,10 +35806,10 @@
         </is>
       </c>
       <c r="C739" t="n">
-        <v>7311</v>
+        <v>7314</v>
       </c>
       <c r="D739" t="n">
-        <v>10691849</v>
+        <v>10696349</v>
       </c>
       <c r="E739" t="inlineStr">
         <is>
@@ -35902,10 +35902,10 @@
         </is>
       </c>
       <c r="C741" t="n">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="D741" t="n">
-        <v>3449950</v>
+        <v>3451450</v>
       </c>
       <c r="E741" t="inlineStr">
         <is>
@@ -35998,10 +35998,10 @@
         </is>
       </c>
       <c r="C743" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D743" t="n">
-        <v>484774</v>
+        <v>485479</v>
       </c>
       <c r="E743" t="inlineStr">
         <is>
@@ -36046,10 +36046,10 @@
         </is>
       </c>
       <c r="C744" t="n">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D744" t="n">
-        <v>591579</v>
+        <v>597334</v>
       </c>
       <c r="E744" t="inlineStr">
         <is>
@@ -36142,10 +36142,10 @@
         </is>
       </c>
       <c r="C746" t="n">
-        <v>12505</v>
+        <v>12512</v>
       </c>
       <c r="D746" t="n">
-        <v>15372061</v>
+        <v>15378513</v>
       </c>
       <c r="E746" t="inlineStr">
         <is>
@@ -36334,10 +36334,10 @@
         </is>
       </c>
       <c r="C750" t="n">
-        <v>4525</v>
+        <v>4528</v>
       </c>
       <c r="D750" t="n">
-        <v>6627787</v>
+        <v>6632287</v>
       </c>
       <c r="E750" t="inlineStr">
         <is>
@@ -36430,10 +36430,10 @@
         </is>
       </c>
       <c r="C752" t="n">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="D752" t="n">
-        <v>2517815</v>
+        <v>2519315</v>
       </c>
       <c r="E752" t="inlineStr">
         <is>
@@ -36526,10 +36526,10 @@
         </is>
       </c>
       <c r="C754" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D754" t="n">
-        <v>527664</v>
+        <v>529164</v>
       </c>
       <c r="E754" t="inlineStr">
         <is>
@@ -36574,10 +36574,10 @@
         </is>
       </c>
       <c r="C755" t="n">
-        <v>31848</v>
+        <v>31865</v>
       </c>
       <c r="D755" t="n">
-        <v>39533836</v>
+        <v>39555298</v>
       </c>
       <c r="E755" t="inlineStr">
         <is>
@@ -36670,10 +36670,10 @@
         </is>
       </c>
       <c r="C757" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D757" t="n">
-        <v>54456</v>
+        <v>54912</v>
       </c>
       <c r="E757" t="inlineStr">
         <is>
@@ -36814,10 +36814,10 @@
         </is>
       </c>
       <c r="C760" t="n">
-        <v>13574</v>
+        <v>13586</v>
       </c>
       <c r="D760" t="n">
-        <v>19852042</v>
+        <v>19868179</v>
       </c>
       <c r="E760" t="inlineStr">
         <is>
@@ -36910,10 +36910,10 @@
         </is>
       </c>
       <c r="C762" t="n">
-        <v>4596</v>
+        <v>4597</v>
       </c>
       <c r="D762" t="n">
-        <v>6567580</v>
+        <v>6569080</v>
       </c>
       <c r="E762" t="inlineStr">
         <is>
@@ -37006,10 +37006,10 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D764" t="n">
-        <v>1111540</v>
+        <v>1111790</v>
       </c>
       <c r="E764" t="inlineStr">
         <is>
@@ -37054,10 +37054,10 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D765" t="n">
-        <v>1158411</v>
+        <v>1159911</v>
       </c>
       <c r="E765" t="inlineStr">
         <is>
@@ -37150,10 +37150,10 @@
         </is>
       </c>
       <c r="C767" t="n">
-        <v>13330</v>
+        <v>13340</v>
       </c>
       <c r="D767" t="n">
-        <v>16389243</v>
+        <v>16402861</v>
       </c>
       <c r="E767" t="inlineStr">
         <is>
@@ -37294,10 +37294,10 @@
         </is>
       </c>
       <c r="C770" t="n">
-        <v>4956</v>
+        <v>4960</v>
       </c>
       <c r="D770" t="n">
-        <v>7240643</v>
+        <v>7246643</v>
       </c>
       <c r="E770" t="inlineStr">
         <is>
@@ -37342,10 +37342,10 @@
         </is>
       </c>
       <c r="C771" t="n">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="D771" t="n">
-        <v>1821082</v>
+        <v>1822582</v>
       </c>
       <c r="E771" t="inlineStr">
         <is>
@@ -37438,10 +37438,10 @@
         </is>
       </c>
       <c r="C773" t="n">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D773" t="n">
-        <v>686324</v>
+        <v>689324</v>
       </c>
       <c r="E773" t="inlineStr">
         <is>
@@ -37486,10 +37486,10 @@
         </is>
       </c>
       <c r="C774" t="n">
-        <v>7384</v>
+        <v>7389</v>
       </c>
       <c r="D774" t="n">
-        <v>8600349</v>
+        <v>8605349</v>
       </c>
       <c r="E774" t="inlineStr">
         <is>
@@ -37678,10 +37678,10 @@
         </is>
       </c>
       <c r="C778" t="n">
-        <v>1844</v>
+        <v>1847</v>
       </c>
       <c r="D778" t="n">
-        <v>2683359</v>
+        <v>2687455</v>
       </c>
       <c r="E778" t="inlineStr">
         <is>
@@ -37726,10 +37726,10 @@
         </is>
       </c>
       <c r="C779" t="n">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="D779" t="n">
-        <v>1606892</v>
+        <v>1609892</v>
       </c>
       <c r="E779" t="inlineStr">
         <is>
@@ -37870,10 +37870,10 @@
         </is>
       </c>
       <c r="C782" t="n">
-        <v>18364</v>
+        <v>18374</v>
       </c>
       <c r="D782" t="n">
-        <v>22245706</v>
+        <v>22255111</v>
       </c>
       <c r="E782" t="inlineStr">
         <is>
@@ -38110,10 +38110,10 @@
         </is>
       </c>
       <c r="C787" t="n">
-        <v>5977</v>
+        <v>5980</v>
       </c>
       <c r="D787" t="n">
-        <v>8763389</v>
+        <v>8767201</v>
       </c>
       <c r="E787" t="inlineStr">
         <is>
@@ -38206,10 +38206,10 @@
         </is>
       </c>
       <c r="C789" t="n">
-        <v>3748</v>
+        <v>3750</v>
       </c>
       <c r="D789" t="n">
-        <v>5471520</v>
+        <v>5474520</v>
       </c>
       <c r="E789" t="inlineStr">
         <is>
@@ -38398,10 +38398,10 @@
         </is>
       </c>
       <c r="C793" t="n">
-        <v>12322</v>
+        <v>12332</v>
       </c>
       <c r="D793" t="n">
-        <v>15499893</v>
+        <v>15512508</v>
       </c>
       <c r="E793" t="inlineStr">
         <is>
@@ -38590,10 +38590,10 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D797" t="n">
-        <v>135362</v>
+        <v>136839</v>
       </c>
       <c r="E797" t="inlineStr">
         <is>
@@ -38638,10 +38638,10 @@
         </is>
       </c>
       <c r="C798" t="n">
-        <v>4209</v>
+        <v>4214</v>
       </c>
       <c r="D798" t="n">
-        <v>6156352</v>
+        <v>6163852</v>
       </c>
       <c r="E798" t="inlineStr">
         <is>
@@ -38734,10 +38734,10 @@
         </is>
       </c>
       <c r="C800" t="n">
-        <v>1373</v>
+        <v>1379</v>
       </c>
       <c r="D800" t="n">
-        <v>1996331</v>
+        <v>2005331</v>
       </c>
       <c r="E800" t="inlineStr">
         <is>
@@ -38926,10 +38926,10 @@
         </is>
       </c>
       <c r="C804" t="n">
-        <v>35297</v>
+        <v>35329</v>
       </c>
       <c r="D804" t="n">
-        <v>43381640</v>
+        <v>43414207</v>
       </c>
       <c r="E804" t="inlineStr">
         <is>
@@ -39118,10 +39118,10 @@
         </is>
       </c>
       <c r="C808" t="n">
-        <v>14139</v>
+        <v>14146</v>
       </c>
       <c r="D808" t="n">
-        <v>20673982</v>
+        <v>20683220</v>
       </c>
       <c r="E808" t="inlineStr">
         <is>
@@ -39214,10 +39214,10 @@
         </is>
       </c>
       <c r="C810" t="n">
-        <v>6652</v>
+        <v>6658</v>
       </c>
       <c r="D810" t="n">
-        <v>9599995</v>
+        <v>9607839</v>
       </c>
       <c r="E810" t="inlineStr">
         <is>
@@ -39358,10 +39358,10 @@
         </is>
       </c>
       <c r="C813" t="n">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="D813" t="n">
-        <v>1252131</v>
+        <v>1253631</v>
       </c>
       <c r="E813" t="inlineStr">
         <is>
@@ -39406,10 +39406,10 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>8362</v>
+        <v>8367</v>
       </c>
       <c r="D814" t="n">
-        <v>10297641</v>
+        <v>10302154</v>
       </c>
       <c r="E814" t="inlineStr">
         <is>
@@ -39790,10 +39790,10 @@
         </is>
       </c>
       <c r="C822" t="n">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D822" t="n">
-        <v>597110</v>
+        <v>601610</v>
       </c>
       <c r="E822" t="inlineStr">
         <is>
@@ -39886,10 +39886,10 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>65977</v>
+        <v>66037</v>
       </c>
       <c r="D824" t="n">
-        <v>82200165</v>
+        <v>82272833</v>
       </c>
       <c r="E824" t="inlineStr">
         <is>
@@ -40126,10 +40126,10 @@
         </is>
       </c>
       <c r="C829" t="n">
-        <v>23176</v>
+        <v>23188</v>
       </c>
       <c r="D829" t="n">
-        <v>33890510</v>
+        <v>33907522</v>
       </c>
       <c r="E829" t="inlineStr">
         <is>
@@ -40270,10 +40270,10 @@
         </is>
       </c>
       <c r="C832" t="n">
-        <v>14280</v>
+        <v>14287</v>
       </c>
       <c r="D832" t="n">
-        <v>20599275</v>
+        <v>20608978</v>
       </c>
       <c r="E832" t="inlineStr">
         <is>
@@ -40510,10 +40510,10 @@
         </is>
       </c>
       <c r="C837" t="n">
-        <v>1797</v>
+        <v>1803</v>
       </c>
       <c r="D837" t="n">
-        <v>2501987</v>
+        <v>2509281</v>
       </c>
       <c r="E837" t="inlineStr">
         <is>
@@ -40558,10 +40558,10 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>12435</v>
+        <v>12438</v>
       </c>
       <c r="D838" t="n">
-        <v>15508900</v>
+        <v>15513400</v>
       </c>
       <c r="E838" t="inlineStr">
         <is>
@@ -40750,10 +40750,10 @@
         </is>
       </c>
       <c r="C842" t="n">
-        <v>4511</v>
+        <v>4516</v>
       </c>
       <c r="D842" t="n">
-        <v>6543931</v>
+        <v>6551431</v>
       </c>
       <c r="E842" t="inlineStr">
         <is>
@@ -41086,10 +41086,10 @@
         </is>
       </c>
       <c r="C849" t="n">
-        <v>64093</v>
+        <v>64134</v>
       </c>
       <c r="D849" t="n">
-        <v>79024179</v>
+        <v>79069441</v>
       </c>
       <c r="E849" t="inlineStr">
         <is>
@@ -41374,10 +41374,10 @@
         </is>
       </c>
       <c r="C855" t="n">
-        <v>24089</v>
+        <v>24106</v>
       </c>
       <c r="D855" t="n">
-        <v>35341921</v>
+        <v>35365408</v>
       </c>
       <c r="E855" t="inlineStr">
         <is>
@@ -41470,10 +41470,10 @@
         </is>
       </c>
       <c r="C857" t="n">
-        <v>15922</v>
+        <v>15933</v>
       </c>
       <c r="D857" t="n">
-        <v>23055308</v>
+        <v>23070738</v>
       </c>
       <c r="E857" t="inlineStr">
         <is>
@@ -41566,10 +41566,10 @@
         </is>
       </c>
       <c r="C859" t="n">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="D859" t="n">
-        <v>1342872</v>
+        <v>1345872</v>
       </c>
       <c r="E859" t="inlineStr">
         <is>
@@ -41614,10 +41614,10 @@
         </is>
       </c>
       <c r="C860" t="n">
-        <v>1743</v>
+        <v>1752</v>
       </c>
       <c r="D860" t="n">
-        <v>2427792</v>
+        <v>2440692</v>
       </c>
       <c r="E860" t="inlineStr">
         <is>
@@ -41710,10 +41710,10 @@
         </is>
       </c>
       <c r="C862" t="n">
-        <v>8400</v>
+        <v>8409</v>
       </c>
       <c r="D862" t="n">
-        <v>10262052</v>
+        <v>10273999</v>
       </c>
       <c r="E862" t="inlineStr">
         <is>
@@ -41806,10 +41806,10 @@
         </is>
       </c>
       <c r="C864" t="n">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="D864" t="n">
-        <v>3976305</v>
+        <v>3977805</v>
       </c>
       <c r="E864" t="inlineStr">
         <is>
@@ -41854,10 +41854,10 @@
         </is>
       </c>
       <c r="C865" t="n">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D865" t="n">
-        <v>1646445</v>
+        <v>1647945</v>
       </c>
       <c r="E865" t="inlineStr">
         <is>
@@ -42142,10 +42142,10 @@
         </is>
       </c>
       <c r="C871" t="n">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D871" t="n">
-        <v>1781663</v>
+        <v>1783163</v>
       </c>
       <c r="E871" t="inlineStr">
         <is>
@@ -42238,10 +42238,10 @@
         </is>
       </c>
       <c r="C873" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D873" t="n">
-        <v>557228</v>
+        <v>557678</v>
       </c>
       <c r="E873" t="inlineStr">
         <is>
@@ -42382,10 +42382,10 @@
         </is>
       </c>
       <c r="C876" t="n">
-        <v>24011</v>
+        <v>24035</v>
       </c>
       <c r="D876" t="n">
-        <v>30015302</v>
+        <v>30037971</v>
       </c>
       <c r="E876" t="inlineStr">
         <is>
@@ -42574,10 +42574,10 @@
         </is>
       </c>
       <c r="C880" t="n">
-        <v>8235</v>
+        <v>8243</v>
       </c>
       <c r="D880" t="n">
-        <v>12020405</v>
+        <v>12032405</v>
       </c>
       <c r="E880" t="inlineStr">
         <is>
@@ -42670,10 +42670,10 @@
         </is>
       </c>
       <c r="C882" t="n">
-        <v>5093</v>
+        <v>5097</v>
       </c>
       <c r="D882" t="n">
-        <v>7357353</v>
+        <v>7362352</v>
       </c>
       <c r="E882" t="inlineStr">
         <is>
@@ -42814,10 +42814,10 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D885" t="n">
-        <v>797827</v>
+        <v>799327</v>
       </c>
       <c r="E885" t="inlineStr">
         <is>
@@ -42910,10 +42910,10 @@
         </is>
       </c>
       <c r="C887" t="n">
-        <v>15782</v>
+        <v>15790</v>
       </c>
       <c r="D887" t="n">
-        <v>18943002</v>
+        <v>18951714</v>
       </c>
       <c r="E887" t="inlineStr">
         <is>
@@ -43198,10 +43198,10 @@
         </is>
       </c>
       <c r="C893" t="n">
-        <v>2620</v>
+        <v>2623</v>
       </c>
       <c r="D893" t="n">
-        <v>3766955</v>
+        <v>3771455</v>
       </c>
       <c r="E893" t="inlineStr">
         <is>
@@ -43390,10 +43390,10 @@
         </is>
       </c>
       <c r="C897" t="n">
-        <v>10648</v>
+        <v>10651</v>
       </c>
       <c r="D897" t="n">
-        <v>13062267</v>
+        <v>13064586</v>
       </c>
       <c r="E897" t="inlineStr">
         <is>
@@ -43534,10 +43534,10 @@
         </is>
       </c>
       <c r="C900" t="n">
-        <v>3517</v>
+        <v>3519</v>
       </c>
       <c r="D900" t="n">
-        <v>5143630</v>
+        <v>5146630</v>
       </c>
       <c r="E900" t="inlineStr">
         <is>
@@ -43582,10 +43582,10 @@
         </is>
       </c>
       <c r="C901" t="n">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="D901" t="n">
-        <v>2369092</v>
+        <v>2370592</v>
       </c>
       <c r="E901" t="inlineStr">
         <is>
@@ -43726,10 +43726,10 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>49818</v>
+        <v>49847</v>
       </c>
       <c r="D904" t="n">
-        <v>62302610</v>
+        <v>62338836</v>
       </c>
       <c r="E904" t="inlineStr">
         <is>
@@ -43966,10 +43966,10 @@
         </is>
       </c>
       <c r="C909" t="n">
-        <v>22802</v>
+        <v>22813</v>
       </c>
       <c r="D909" t="n">
-        <v>33423957</v>
+        <v>33440357</v>
       </c>
       <c r="E909" t="inlineStr">
         <is>
@@ -44062,10 +44062,10 @@
         </is>
       </c>
       <c r="C911" t="n">
-        <v>6791</v>
+        <v>6795</v>
       </c>
       <c r="D911" t="n">
-        <v>9785111</v>
+        <v>9790262</v>
       </c>
       <c r="E911" t="inlineStr">
         <is>
@@ -44206,10 +44206,10 @@
         </is>
       </c>
       <c r="C914" t="n">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="D914" t="n">
-        <v>1668818</v>
+        <v>1669605</v>
       </c>
       <c r="E914" t="inlineStr">
         <is>
@@ -44254,10 +44254,10 @@
         </is>
       </c>
       <c r="C915" t="n">
-        <v>23120</v>
+        <v>23141</v>
       </c>
       <c r="D915" t="n">
-        <v>28685278</v>
+        <v>28708355</v>
       </c>
       <c r="E915" t="inlineStr">
         <is>
@@ -44446,10 +44446,10 @@
         </is>
       </c>
       <c r="C919" t="n">
-        <v>10435</v>
+        <v>10436</v>
       </c>
       <c r="D919" t="n">
-        <v>15283109</v>
+        <v>15284609</v>
       </c>
       <c r="E919" t="inlineStr">
         <is>
@@ -44542,10 +44542,10 @@
         </is>
       </c>
       <c r="C921" t="n">
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="D921" t="n">
-        <v>3600137</v>
+        <v>3601637</v>
       </c>
       <c r="E921" t="inlineStr">
         <is>
@@ -44638,10 +44638,10 @@
         </is>
       </c>
       <c r="C923" t="n">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D923" t="n">
-        <v>911149</v>
+        <v>913518</v>
       </c>
       <c r="E923" t="inlineStr">
         <is>
@@ -44734,10 +44734,10 @@
         </is>
       </c>
       <c r="C925" t="n">
-        <v>7707</v>
+        <v>7711</v>
       </c>
       <c r="D925" t="n">
-        <v>9640324</v>
+        <v>9645706</v>
       </c>
       <c r="E925" t="inlineStr">
         <is>
@@ -45022,10 +45022,10 @@
         </is>
       </c>
       <c r="C931" t="n">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="D931" t="n">
-        <v>1046425</v>
+        <v>1049425</v>
       </c>
       <c r="E931" t="inlineStr">
         <is>
@@ -45166,10 +45166,10 @@
         </is>
       </c>
       <c r="C934" t="n">
-        <v>14182</v>
+        <v>14192</v>
       </c>
       <c r="D934" t="n">
-        <v>17573506</v>
+        <v>17580663</v>
       </c>
       <c r="E934" t="inlineStr">
         <is>
@@ -45358,10 +45358,10 @@
         </is>
       </c>
       <c r="C938" t="n">
-        <v>5619</v>
+        <v>5620</v>
       </c>
       <c r="D938" t="n">
-        <v>8205776</v>
+        <v>8207276</v>
       </c>
       <c r="E938" t="inlineStr">
         <is>
@@ -45454,10 +45454,10 @@
         </is>
       </c>
       <c r="C940" t="n">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="D940" t="n">
-        <v>2266481</v>
+        <v>2270981</v>
       </c>
       <c r="E940" t="inlineStr">
         <is>
@@ -45646,10 +45646,10 @@
         </is>
       </c>
       <c r="C944" t="n">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D944" t="n">
-        <v>467411</v>
+        <v>474911</v>
       </c>
       <c r="E944" t="inlineStr">
         <is>
@@ -45694,10 +45694,10 @@
         </is>
       </c>
       <c r="C945" t="n">
-        <v>20887</v>
+        <v>20893</v>
       </c>
       <c r="D945" t="n">
-        <v>25938437</v>
+        <v>25943069</v>
       </c>
       <c r="E945" t="inlineStr">
         <is>
@@ -45934,10 +45934,10 @@
         </is>
       </c>
       <c r="C950" t="n">
-        <v>10592</v>
+        <v>10593</v>
       </c>
       <c r="D950" t="n">
-        <v>15472465</v>
+        <v>15473965</v>
       </c>
       <c r="E950" t="inlineStr">
         <is>
@@ -46030,10 +46030,10 @@
         </is>
       </c>
       <c r="C952" t="n">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="D952" t="n">
-        <v>3287842</v>
+        <v>3290842</v>
       </c>
       <c r="E952" t="inlineStr">
         <is>
@@ -46126,10 +46126,10 @@
         </is>
       </c>
       <c r="C954" t="n">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D954" t="n">
-        <v>778096</v>
+        <v>779596</v>
       </c>
       <c r="E954" t="inlineStr">
         <is>
@@ -46174,10 +46174,10 @@
         </is>
       </c>
       <c r="C955" t="n">
-        <v>9374</v>
+        <v>9376</v>
       </c>
       <c r="D955" t="n">
-        <v>11646531</v>
+        <v>11648699</v>
       </c>
       <c r="E955" t="inlineStr">
         <is>
@@ -46414,10 +46414,10 @@
         </is>
       </c>
       <c r="C960" t="n">
-        <v>3399</v>
+        <v>3401</v>
       </c>
       <c r="D960" t="n">
-        <v>4962093</v>
+        <v>4965093</v>
       </c>
       <c r="E960" t="inlineStr">
         <is>
@@ -46462,10 +46462,10 @@
         </is>
       </c>
       <c r="C961" t="n">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="D961" t="n">
-        <v>2347888</v>
+        <v>2349388</v>
       </c>
       <c r="E961" t="inlineStr">
         <is>
@@ -46654,10 +46654,10 @@
         </is>
       </c>
       <c r="C965" t="n">
-        <v>76771</v>
+        <v>76831</v>
       </c>
       <c r="D965" t="n">
-        <v>98605644</v>
+        <v>98675438</v>
       </c>
       <c r="E965" t="inlineStr">
         <is>
@@ -46702,10 +46702,10 @@
         </is>
       </c>
       <c r="C966" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D966" t="n">
-        <v>78943</v>
+        <v>80443</v>
       </c>
       <c r="E966" t="inlineStr">
         <is>
@@ -46990,10 +46990,10 @@
         </is>
       </c>
       <c r="C972" t="n">
-        <v>28546</v>
+        <v>28576</v>
       </c>
       <c r="D972" t="n">
-        <v>41845048</v>
+        <v>41888879</v>
       </c>
       <c r="E972" t="inlineStr">
         <is>
@@ -47086,10 +47086,10 @@
         </is>
       </c>
       <c r="C974" t="n">
-        <v>20650</v>
+        <v>3</v>
       </c>
       <c r="D974" t="n">
-        <v>29947039</v>
+        <v>4500</v>
       </c>
       <c r="E974" t="inlineStr">
         <is>
@@ -47113,12 +47113,12 @@
       </c>
       <c r="I974" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56</t>
         </is>
       </c>
       <c r="J974" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à directoire</t>
         </is>
       </c>
     </row>
@@ -47134,10 +47134,10 @@
         </is>
       </c>
       <c r="C975" t="n">
-        <v>12</v>
+        <v>20671</v>
       </c>
       <c r="D975" t="n">
-        <v>18000</v>
+        <v>29978527</v>
       </c>
       <c r="E975" t="inlineStr">
         <is>
@@ -47161,12 +47161,12 @@
       </c>
       <c r="I975" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>57</t>
         </is>
       </c>
       <c r="J975" t="inlineStr">
         <is>
-          <t>Groupement d'intérêt économique</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -47182,10 +47182,10 @@
         </is>
       </c>
       <c r="C976" t="n">
-        <v>541</v>
+        <v>12</v>
       </c>
       <c r="D976" t="n">
-        <v>767719</v>
+        <v>18000</v>
       </c>
       <c r="E976" t="inlineStr">
         <is>
@@ -47209,12 +47209,12 @@
       </c>
       <c r="I976" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>62</t>
         </is>
       </c>
       <c r="J976" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Groupement d'intérêt économique</t>
         </is>
       </c>
     </row>
@@ -47230,10 +47230,10 @@
         </is>
       </c>
       <c r="C977" t="n">
-        <v>1163</v>
+        <v>544</v>
       </c>
       <c r="D977" t="n">
-        <v>1646757</v>
+        <v>771513</v>
       </c>
       <c r="E977" t="inlineStr">
         <is>
@@ -47257,12 +47257,12 @@
       </c>
       <c r="I977" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>65</t>
         </is>
       </c>
       <c r="J977" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -47278,10 +47278,10 @@
         </is>
       </c>
       <c r="C978" t="n">
-        <v>93995</v>
+        <v>1166</v>
       </c>
       <c r="D978" t="n">
-        <v>117740009</v>
+        <v>1651080</v>
       </c>
       <c r="E978" t="inlineStr">
         <is>
@@ -47295,22 +47295,22 @@
       </c>
       <c r="G978" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>06</t>
         </is>
       </c>
       <c r="H978" t="inlineStr">
         <is>
-          <t>Bouches-du-Rhône</t>
+          <t>Alpes-Maritimes</t>
         </is>
       </c>
       <c r="I978" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="J978" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -47326,10 +47326,10 @@
         </is>
       </c>
       <c r="C979" t="n">
-        <v>60</v>
+        <v>94075</v>
       </c>
       <c r="D979" t="n">
-        <v>80193</v>
+        <v>117837303</v>
       </c>
       <c r="E979" t="inlineStr">
         <is>
@@ -47353,12 +47353,12 @@
       </c>
       <c r="I979" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J979" t="inlineStr">
         <is>
-          <t>Indivision</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -47374,10 +47374,10 @@
         </is>
       </c>
       <c r="C980" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D980" t="n">
-        <v>104458</v>
+        <v>80193</v>
       </c>
       <c r="E980" t="inlineStr">
         <is>
@@ -47401,12 +47401,12 @@
       </c>
       <c r="I980" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="J980" t="inlineStr">
         <is>
-          <t>Société créée de fait</t>
+          <t>Indivision</t>
         </is>
       </c>
     </row>
@@ -47422,10 +47422,10 @@
         </is>
       </c>
       <c r="C981" t="n">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D981" t="n">
-        <v>7500</v>
+        <v>104458</v>
       </c>
       <c r="E981" t="inlineStr">
         <is>
@@ -47449,12 +47449,12 @@
       </c>
       <c r="I981" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="J981" t="inlineStr">
         <is>
-          <t>Société en participation</t>
+          <t>Société créée de fait</t>
         </is>
       </c>
     </row>
@@ -47470,10 +47470,10 @@
         </is>
       </c>
       <c r="C982" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D982" t="n">
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="E982" t="inlineStr">
         <is>
@@ -47497,12 +47497,12 @@
       </c>
       <c r="I982" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
       <c r="J982" t="inlineStr">
         <is>
-          <t>Autre groupement de droit privé non doté de la personnalité morale</t>
+          <t>Société en participation</t>
         </is>
       </c>
     </row>
@@ -47518,10 +47518,10 @@
         </is>
       </c>
       <c r="C983" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D983" t="n">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="E983" t="inlineStr">
         <is>
@@ -47545,12 +47545,12 @@
       </c>
       <c r="I983" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>29</t>
         </is>
       </c>
       <c r="J983" t="inlineStr">
         <is>
-          <t>Personne morale de droit étranger - non immatriculée au RCS</t>
+          <t>Autre groupement de droit privé non doté de la personnalité morale</t>
         </is>
       </c>
     </row>
@@ -47566,10 +47566,10 @@
         </is>
       </c>
       <c r="C984" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D984" t="n">
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="E984" t="inlineStr">
         <is>
@@ -47593,12 +47593,12 @@
       </c>
       <c r="I984" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>32</t>
         </is>
       </c>
       <c r="J984" t="inlineStr">
         <is>
-          <t>Etablissement public ou régie à caractère industriel ou commercial</t>
+          <t>Personne morale de droit étranger - non immatriculée au RCS</t>
         </is>
       </c>
     </row>
@@ -47614,10 +47614,10 @@
         </is>
       </c>
       <c r="C985" t="n">
-        <v>322</v>
+        <v>4</v>
       </c>
       <c r="D985" t="n">
-        <v>475758</v>
+        <v>6000</v>
       </c>
       <c r="E985" t="inlineStr">
         <is>
@@ -47641,12 +47641,12 @@
       </c>
       <c r="I985" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>41</t>
         </is>
       </c>
       <c r="J985" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Etablissement public ou régie à caractère industriel ou commercial</t>
         </is>
       </c>
     </row>
@@ -47662,10 +47662,10 @@
         </is>
       </c>
       <c r="C986" t="n">
-        <v>37668</v>
+        <v>322</v>
       </c>
       <c r="D986" t="n">
-        <v>55196424</v>
+        <v>475758</v>
       </c>
       <c r="E986" t="inlineStr">
         <is>
@@ -47689,12 +47689,12 @@
       </c>
       <c r="I986" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="J986" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -47710,10 +47710,10 @@
         </is>
       </c>
       <c r="C987" t="n">
-        <v>20</v>
+        <v>37724</v>
       </c>
       <c r="D987" t="n">
-        <v>30000</v>
+        <v>55279414</v>
       </c>
       <c r="E987" t="inlineStr">
         <is>
@@ -47737,12 +47737,12 @@
       </c>
       <c r="I987" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="J987" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -47758,10 +47758,10 @@
         </is>
       </c>
       <c r="C988" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D988" t="n">
-        <v>6000</v>
+        <v>31500</v>
       </c>
       <c r="E988" t="inlineStr">
         <is>
@@ -47785,12 +47785,12 @@
       </c>
       <c r="I988" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>55</t>
         </is>
       </c>
       <c r="J988" t="inlineStr">
         <is>
-          <t>Société anonyme à directoire</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -47806,10 +47806,10 @@
         </is>
       </c>
       <c r="C989" t="n">
-        <v>29066</v>
+        <v>4</v>
       </c>
       <c r="D989" t="n">
-        <v>42174321</v>
+        <v>6000</v>
       </c>
       <c r="E989" t="inlineStr">
         <is>
@@ -47833,12 +47833,12 @@
       </c>
       <c r="I989" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>56</t>
         </is>
       </c>
       <c r="J989" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à directoire</t>
         </is>
       </c>
     </row>
@@ -47854,10 +47854,10 @@
         </is>
       </c>
       <c r="C990" t="n">
-        <v>652</v>
+        <v>29118</v>
       </c>
       <c r="D990" t="n">
-        <v>929689</v>
+        <v>42254953</v>
       </c>
       <c r="E990" t="inlineStr">
         <is>
@@ -47881,12 +47881,12 @@
       </c>
       <c r="I990" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="J990" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -47902,10 +47902,10 @@
         </is>
       </c>
       <c r="C991" t="n">
-        <v>3</v>
+        <v>652</v>
       </c>
       <c r="D991" t="n">
-        <v>4500</v>
+        <v>929689</v>
       </c>
       <c r="E991" t="inlineStr">
         <is>
@@ -47929,12 +47929,12 @@
       </c>
       <c r="I991" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>65</t>
         </is>
       </c>
       <c r="J991" t="inlineStr">
         <is>
-          <t>Syndicat de propriétaires</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -47950,10 +47950,10 @@
         </is>
       </c>
       <c r="C992" t="n">
-        <v>2657</v>
+        <v>3</v>
       </c>
       <c r="D992" t="n">
-        <v>3729835</v>
+        <v>4500</v>
       </c>
       <c r="E992" t="inlineStr">
         <is>
@@ -47977,12 +47977,12 @@
       </c>
       <c r="I992" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91</t>
         </is>
       </c>
       <c r="J992" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Syndicat de propriétaires</t>
         </is>
       </c>
     </row>
@@ -47998,10 +47998,10 @@
         </is>
       </c>
       <c r="C993" t="n">
-        <v>11948</v>
+        <v>2665</v>
       </c>
       <c r="D993" t="n">
-        <v>15513958</v>
+        <v>3740935</v>
       </c>
       <c r="E993" t="inlineStr">
         <is>
@@ -48015,22 +48015,22 @@
       </c>
       <c r="G993" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H993" t="inlineStr">
         <is>
-          <t>Hautes-Alpes</t>
+          <t>Bouches-du-Rhône</t>
         </is>
       </c>
       <c r="I993" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="J993" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -48046,10 +48046,10 @@
         </is>
       </c>
       <c r="C994" t="n">
-        <v>9</v>
+        <v>11960</v>
       </c>
       <c r="D994" t="n">
-        <v>9851</v>
+        <v>15524528</v>
       </c>
       <c r="E994" t="inlineStr">
         <is>
@@ -48073,12 +48073,12 @@
       </c>
       <c r="I994" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J994" t="inlineStr">
         <is>
-          <t>Indivision</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -48094,10 +48094,10 @@
         </is>
       </c>
       <c r="C995" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D995" t="n">
-        <v>39893</v>
+        <v>9851</v>
       </c>
       <c r="E995" t="inlineStr">
         <is>
@@ -48121,12 +48121,12 @@
       </c>
       <c r="I995" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="J995" t="inlineStr">
         <is>
-          <t>Société créée de fait</t>
+          <t>Indivision</t>
         </is>
       </c>
     </row>
@@ -48142,10 +48142,10 @@
         </is>
       </c>
       <c r="C996" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D996" t="n">
-        <v>6000</v>
+        <v>39893</v>
       </c>
       <c r="E996" t="inlineStr">
         <is>
@@ -48169,12 +48169,12 @@
       </c>
       <c r="I996" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>22</t>
         </is>
       </c>
       <c r="J996" t="inlineStr">
         <is>
-          <t>Etablissement public ou régie à caractère industriel ou commercial</t>
+          <t>Société créée de fait</t>
         </is>
       </c>
     </row>
@@ -48190,10 +48190,10 @@
         </is>
       </c>
       <c r="C997" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D997" t="n">
-        <v>73668</v>
+        <v>6000</v>
       </c>
       <c r="E997" t="inlineStr">
         <is>
@@ -48217,12 +48217,12 @@
       </c>
       <c r="I997" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>41</t>
         </is>
       </c>
       <c r="J997" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Etablissement public ou régie à caractère industriel ou commercial</t>
         </is>
       </c>
     </row>
@@ -48238,10 +48238,10 @@
         </is>
       </c>
       <c r="C998" t="n">
-        <v>3806</v>
+        <v>50</v>
       </c>
       <c r="D998" t="n">
-        <v>5555121</v>
+        <v>73668</v>
       </c>
       <c r="E998" t="inlineStr">
         <is>
@@ -48265,12 +48265,12 @@
       </c>
       <c r="I998" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="J998" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -48286,10 +48286,10 @@
         </is>
       </c>
       <c r="C999" t="n">
-        <v>1260</v>
+        <v>3809</v>
       </c>
       <c r="D999" t="n">
-        <v>1818857</v>
+        <v>5559621</v>
       </c>
       <c r="E999" t="inlineStr">
         <is>
@@ -48313,12 +48313,12 @@
       </c>
       <c r="I999" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>54</t>
         </is>
       </c>
       <c r="J999" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -48334,10 +48334,10 @@
         </is>
       </c>
       <c r="C1000" t="n">
-        <v>114</v>
+        <v>1260</v>
       </c>
       <c r="D1000" t="n">
-        <v>155487</v>
+        <v>1818857</v>
       </c>
       <c r="E1000" t="inlineStr">
         <is>
@@ -48361,12 +48361,12 @@
       </c>
       <c r="I1000" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="J1000" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -48382,10 +48382,10 @@
         </is>
       </c>
       <c r="C1001" t="n">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="D1001" t="n">
-        <v>13500</v>
+        <v>155487</v>
       </c>
       <c r="E1001" t="inlineStr">
         <is>
@@ -48409,12 +48409,12 @@
       </c>
       <c r="I1001" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>65</t>
         </is>
       </c>
       <c r="J1001" t="inlineStr">
         <is>
-          <t>Organisme professionnel</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -48430,10 +48430,10 @@
         </is>
       </c>
       <c r="C1002" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D1002" t="n">
-        <v>7500</v>
+        <v>13500</v>
       </c>
       <c r="E1002" t="inlineStr">
         <is>
@@ -48457,12 +48457,12 @@
       </c>
       <c r="I1002" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>84</t>
         </is>
       </c>
       <c r="J1002" t="inlineStr">
         <is>
-          <t>Syndicat de propriétaires</t>
+          <t>Organisme professionnel</t>
         </is>
       </c>
     </row>
@@ -48478,10 +48478,10 @@
         </is>
       </c>
       <c r="C1003" t="n">
-        <v>206</v>
+        <v>6</v>
       </c>
       <c r="D1003" t="n">
-        <v>295533</v>
+        <v>9000</v>
       </c>
       <c r="E1003" t="inlineStr">
         <is>
@@ -48505,12 +48505,12 @@
       </c>
       <c r="I1003" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>91</t>
         </is>
       </c>
       <c r="J1003" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Syndicat de propriétaires</t>
         </is>
       </c>
     </row>
@@ -48526,10 +48526,10 @@
         </is>
       </c>
       <c r="C1004" t="n">
-        <v>60517</v>
+        <v>206</v>
       </c>
       <c r="D1004" t="n">
-        <v>75529627</v>
+        <v>295533</v>
       </c>
       <c r="E1004" t="inlineStr">
         <is>
@@ -48543,22 +48543,22 @@
       </c>
       <c r="G1004" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>05</t>
         </is>
       </c>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>Var</t>
+          <t>Hautes-Alpes</t>
         </is>
       </c>
       <c r="I1004" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="J1004" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -48574,10 +48574,10 @@
         </is>
       </c>
       <c r="C1005" t="n">
-        <v>53</v>
+        <v>60546</v>
       </c>
       <c r="D1005" t="n">
-        <v>59556</v>
+        <v>75564498</v>
       </c>
       <c r="E1005" t="inlineStr">
         <is>
@@ -48601,12 +48601,12 @@
       </c>
       <c r="I1005" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J1005" t="inlineStr">
         <is>
-          <t>Indivision</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -48622,10 +48622,10 @@
         </is>
       </c>
       <c r="C1006" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1006" t="n">
-        <v>73768</v>
+        <v>59556</v>
       </c>
       <c r="E1006" t="inlineStr">
         <is>
@@ -48649,12 +48649,12 @@
       </c>
       <c r="I1006" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="J1006" t="inlineStr">
         <is>
-          <t>Société créée de fait</t>
+          <t>Indivision</t>
         </is>
       </c>
     </row>
@@ -48670,10 +48670,10 @@
         </is>
       </c>
       <c r="C1007" t="n">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D1007" t="n">
-        <v>4499</v>
+        <v>73768</v>
       </c>
       <c r="E1007" t="inlineStr">
         <is>
@@ -48697,12 +48697,12 @@
       </c>
       <c r="I1007" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>22</t>
         </is>
       </c>
       <c r="J1007" t="inlineStr">
         <is>
-          <t>Etablissement public ou régie à caractère industriel ou commercial</t>
+          <t>Société créée de fait</t>
         </is>
       </c>
     </row>
@@ -48718,10 +48718,10 @@
         </is>
       </c>
       <c r="C1008" t="n">
-        <v>194</v>
+        <v>3</v>
       </c>
       <c r="D1008" t="n">
-        <v>281017</v>
+        <v>4499</v>
       </c>
       <c r="E1008" t="inlineStr">
         <is>
@@ -48745,12 +48745,12 @@
       </c>
       <c r="I1008" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>41</t>
         </is>
       </c>
       <c r="J1008" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Etablissement public ou régie à caractère industriel ou commercial</t>
         </is>
       </c>
     </row>
@@ -48766,10 +48766,10 @@
         </is>
       </c>
       <c r="C1009" t="n">
-        <v>19583</v>
+        <v>194</v>
       </c>
       <c r="D1009" t="n">
-        <v>28677106</v>
+        <v>281017</v>
       </c>
       <c r="E1009" t="inlineStr">
         <is>
@@ -48793,12 +48793,12 @@
       </c>
       <c r="I1009" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="J1009" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -48814,10 +48814,10 @@
         </is>
       </c>
       <c r="C1010" t="n">
-        <v>19</v>
+        <v>19592</v>
       </c>
       <c r="D1010" t="n">
-        <v>28500</v>
+        <v>28690588</v>
       </c>
       <c r="E1010" t="inlineStr">
         <is>
@@ -48841,12 +48841,12 @@
       </c>
       <c r="I1010" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="J1010" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -48862,10 +48862,10 @@
         </is>
       </c>
       <c r="C1011" t="n">
-        <v>13838</v>
+        <v>19</v>
       </c>
       <c r="D1011" t="n">
-        <v>20010705</v>
+        <v>28500</v>
       </c>
       <c r="E1011" t="inlineStr">
         <is>
@@ -48889,12 +48889,12 @@
       </c>
       <c r="I1011" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="J1011" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -48910,10 +48910,10 @@
         </is>
       </c>
       <c r="C1012" t="n">
-        <v>516</v>
+        <v>13847</v>
       </c>
       <c r="D1012" t="n">
-        <v>717590</v>
+        <v>20022477</v>
       </c>
       <c r="E1012" t="inlineStr">
         <is>
@@ -48937,12 +48937,12 @@
       </c>
       <c r="I1012" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="J1012" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -48958,10 +48958,10 @@
         </is>
       </c>
       <c r="C1013" t="n">
-        <v>3</v>
+        <v>516</v>
       </c>
       <c r="D1013" t="n">
-        <v>4500</v>
+        <v>717590</v>
       </c>
       <c r="E1013" t="inlineStr">
         <is>
@@ -48985,12 +48985,12 @@
       </c>
       <c r="I1013" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>65</t>
         </is>
       </c>
       <c r="J1013" t="inlineStr">
         <is>
-          <t>Organisme professionnel</t>
+          <t>Société civile</t>
         </is>
       </c>
     </row>
@@ -49006,10 +49006,10 @@
         </is>
       </c>
       <c r="C1014" t="n">
-        <v>946</v>
+        <v>3</v>
       </c>
       <c r="D1014" t="n">
-        <v>1321296</v>
+        <v>4500</v>
       </c>
       <c r="E1014" t="inlineStr">
         <is>
@@ -49033,12 +49033,12 @@
       </c>
       <c r="I1014" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>84</t>
         </is>
       </c>
       <c r="J1014" t="inlineStr">
         <is>
-          <t>Association loi 1901 ou assimilé</t>
+          <t>Organisme professionnel</t>
         </is>
       </c>
     </row>
@@ -49054,10 +49054,10 @@
         </is>
       </c>
       <c r="C1015" t="n">
-        <v>30982</v>
+        <v>948</v>
       </c>
       <c r="D1015" t="n">
-        <v>38469858</v>
+        <v>1324296</v>
       </c>
       <c r="E1015" t="inlineStr">
         <is>
@@ -49071,22 +49071,22 @@
       </c>
       <c r="G1015" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>83</t>
         </is>
       </c>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>Vaucluse</t>
+          <t>Var</t>
         </is>
       </c>
       <c r="I1015" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>92</t>
         </is>
       </c>
       <c r="J1015" t="inlineStr">
         <is>
-          <t>Entrepreneur individuel</t>
+          <t>Association loi 1901 ou assimilé</t>
         </is>
       </c>
     </row>
@@ -49102,10 +49102,10 @@
         </is>
       </c>
       <c r="C1016" t="n">
-        <v>9</v>
+        <v>30995</v>
       </c>
       <c r="D1016" t="n">
-        <v>10869</v>
+        <v>38485300</v>
       </c>
       <c r="E1016" t="inlineStr">
         <is>
@@ -49129,12 +49129,12 @@
       </c>
       <c r="I1016" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J1016" t="inlineStr">
         <is>
-          <t>Indivision</t>
+          <t>Entrepreneur individuel</t>
         </is>
       </c>
     </row>
@@ -49150,10 +49150,10 @@
         </is>
       </c>
       <c r="C1017" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1017" t="n">
-        <v>17580</v>
+        <v>10869</v>
       </c>
       <c r="E1017" t="inlineStr">
         <is>
@@ -49177,12 +49177,12 @@
       </c>
       <c r="I1017" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="J1017" t="inlineStr">
         <is>
-          <t>Société créée de fait</t>
+          <t>Indivision</t>
         </is>
       </c>
     </row>
@@ -49198,10 +49198,10 @@
         </is>
       </c>
       <c r="C1018" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D1018" t="n">
-        <v>6981</v>
+        <v>17580</v>
       </c>
       <c r="E1018" t="inlineStr">
         <is>
@@ -49225,12 +49225,12 @@
       </c>
       <c r="I1018" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>22</t>
         </is>
       </c>
       <c r="J1018" t="inlineStr">
         <is>
-          <t>Etablissement public ou régie à caractère industriel ou commercial</t>
+          <t>Société créée de fait</t>
         </is>
       </c>
     </row>
@@ -49246,10 +49246,10 @@
         </is>
       </c>
       <c r="C1019" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="D1019" t="n">
-        <v>118260</v>
+        <v>6981</v>
       </c>
       <c r="E1019" t="inlineStr">
         <is>
@@ -49273,12 +49273,12 @@
       </c>
       <c r="I1019" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>41</t>
         </is>
       </c>
       <c r="J1019" t="inlineStr">
         <is>
-          <t>Société en nom collectif</t>
+          <t>Etablissement public ou régie à caractère industriel ou commercial</t>
         </is>
       </c>
     </row>
@@ -49294,10 +49294,10 @@
         </is>
       </c>
       <c r="C1020" t="n">
-        <v>11459</v>
+        <v>80</v>
       </c>
       <c r="D1020" t="n">
-        <v>16775428</v>
+        <v>118260</v>
       </c>
       <c r="E1020" t="inlineStr">
         <is>
@@ -49321,12 +49321,12 @@
       </c>
       <c r="I1020" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>52</t>
         </is>
       </c>
       <c r="J1020" t="inlineStr">
         <is>
-          <t>Société à responsabilité limitée (SARL)</t>
+          <t>Société en nom collectif</t>
         </is>
       </c>
     </row>
@@ -49342,10 +49342,10 @@
         </is>
       </c>
       <c r="C1021" t="n">
-        <v>9</v>
+        <v>11464</v>
       </c>
       <c r="D1021" t="n">
-        <v>13500</v>
+        <v>16783773</v>
       </c>
       <c r="E1021" t="inlineStr">
         <is>
@@ -49369,12 +49369,12 @@
       </c>
       <c r="I1021" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>54</t>
         </is>
       </c>
       <c r="J1021" t="inlineStr">
         <is>
-          <t>Société anonyme à conseil d'administration</t>
+          <t>Société à responsabilité limitée (SARL)</t>
         </is>
       </c>
     </row>
@@ -49390,10 +49390,10 @@
         </is>
       </c>
       <c r="C1022" t="n">
-        <v>6937</v>
+        <v>9</v>
       </c>
       <c r="D1022" t="n">
-        <v>10048618</v>
+        <v>13500</v>
       </c>
       <c r="E1022" t="inlineStr">
         <is>
@@ -49417,12 +49417,12 @@
       </c>
       <c r="I1022" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>55</t>
         </is>
       </c>
       <c r="J1022" t="inlineStr">
         <is>
-          <t>Société par actions simplifiée</t>
+          <t>Société anonyme à conseil d'administration</t>
         </is>
       </c>
     </row>
@@ -49438,10 +49438,10 @@
         </is>
       </c>
       <c r="C1023" t="n">
-        <v>559</v>
+        <v>6940</v>
       </c>
       <c r="D1023" t="n">
-        <v>794352</v>
+        <v>10052203</v>
       </c>
       <c r="E1023" t="inlineStr">
         <is>
@@ -49465,12 +49465,12 @@
       </c>
       <c r="I1023" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>57</t>
         </is>
       </c>
       <c r="J1023" t="inlineStr">
         <is>
-          <t>Société civile</t>
+          <t>Société par actions simplifiée</t>
         </is>
       </c>
     </row>
@@ -49486,10 +49486,10 @@
         </is>
       </c>
       <c r="C1024" t="n">
-        <v>766</v>
+        <v>559</v>
       </c>
       <c r="D1024" t="n">
-        <v>1060121</v>
+        <v>794352</v>
       </c>
       <c r="E1024" t="inlineStr">
         <is>
@@ -49513,10 +49513,58 @@
       </c>
       <c r="I1024" t="inlineStr">
         <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="J1024" t="inlineStr">
+        <is>
+          <t>Société civile</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>Fonds de solidarité</t>
+        </is>
+      </c>
+      <c r="B1025" t="inlineStr">
+        <is>
+          <t>VOLET1</t>
+        </is>
+      </c>
+      <c r="C1025" t="n">
+        <v>768</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>1063121</v>
+      </c>
+      <c r="E1025" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="F1025" t="inlineStr">
+        <is>
+          <t>Provence-Alpes-Côte d'Azur</t>
+        </is>
+      </c>
+      <c r="G1025" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H1025" t="inlineStr">
+        <is>
+          <t>Vaucluse</t>
+        </is>
+      </c>
+      <c r="I1025" t="inlineStr">
+        <is>
           <t>92</t>
         </is>
       </c>
-      <c r="J1024" t="inlineStr">
+      <c r="J1025" t="inlineStr">
         <is>
           <t>Association loi 1901 ou assimilé</t>
         </is>
